--- a/server/data/postprocdata.xlsx
+++ b/server/data/postprocdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,45 @@
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>Похота зяби под мн тр
+По Пу 26/488
+Отд 12 26/221
+Предп культ под оз пш
+По Пу 215/1015
+Отд 12 128/317
+Отд 16 123/529
+2-е диск сах св под пш
+По Пу 22/627
+Отд 11 22/217
+2-е диск сои под оз пш
+По Пу 45/1907
+Отд 12 45/299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>похота зяби под многолетние травы
+по пу площадь за день 26 площадь с начала операции 488
+отделение 12 площадь за день 26 площадь с начала операции 221
+предпосевная культура под озимая пшеница
+по пу площадь за день 215 площадь с начала операции 1015
+отделение 12 площадь за день 128 площадь с начала операции 317
+отделение 16 площадь за день 123 площадь с начала операции 529
+второе дискование сахарная свекла под пшеница
+по пу площадь за день 22 площадь с начала операции 627
+отделение 11 площадь за день 22 площадь с начала операции 217
+второе дискование сои под озимая пшеница
+по пу площадь за день 45 площадь с начала операции 1907
+отделение 12 площадь за день 45 площадь с начала операции 299</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Пахота зяби под мн тр
 По Пу 26/514
@@ -471,34 +510,34 @@
 Отд 11 82/993</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу 26/514
-отделение 12 26/247
+по пу площадь за день 26 площадь с начала операции 514
+отделение 12 площадь за день 26 площадь с начала операции 247
 пахота зяби под сою
-по пу 13/1351
-отделение 16 13/731
+по пу площадь за день 13 площадь с начала операции 1351
+отделение 16 площадь за день 13 площадь с начала операции 731
 предпосевная культура под озимая пшеница
-по пу 56/1071
-отделение 16 56/585
+по пу площадь за день 56 площадь с начала операции 1071
+отделение 16 площадь за день 56 площадь с начала операции 585
 дискование сахарная свекла
-по пу 85/870
-отделение 17 85/168
+по пу площадь за день 85 площадь с начала операции 870
+отделение 17 площадь за день 85 площадь с начала операции 168
 второе дискование сахарная свекла под пшеница
-по пу 123/750
-отделение 12 123/450
+по пу площадь за день 123 площадь с начала операции 750
+отделение 12 площадь за день 123 площадь с начала операции 450
 второе дискование сои под озимая пшеница
-по пу 82/1989
-отделение 11 82/993</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+по пу площадь за день 82 площадь с начала операции 1989
+отделение 11 площадь за день 82 площадь с начала операции 993</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 29/1367
@@ -514,47 +553,47 @@
 Отд 12 25/475</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 29/1367
-отделение 16 29/760
+по пу площадь за день 29 площадь с начала операции 1367
+отделение 16 площадь за день 29 площадь с начала операции 760
 предпосевная культура под озимая пшеница
-по пу 146/1217
-отделение 11 146/233
+по пу площадь за день 146 площадь с начала операции 1217
+отделение 11 площадь за день 146 площадь с начала операции 233
 дискование сахарная свекла
-по пу 64/934
-отделение 17 64/232
+по пу площадь за день 64 площадь с начала операции 934
+отделение 17 площадь за день 64 площадь с начала операции 232
 второе дискование сахарная свекла под пшеница
-по пу 25/775
-отделение 12 25/475</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+по пу площадь за день 25 площадь с начала операции 775
+отделение 12 площадь за день 25 площадь с начала операции 475</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>12.10
 Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 149/7264
 Отд 17-149/1443</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг 149/7264
-отделение 17-149/1443</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12 10
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 149 площадь с начала операции 7264
+отделение 17 площадь за день 149 площадь с начала операции 1443</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 15/1382
@@ -576,34 +615,34 @@
 Отд 11 95/328</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 15/1382
-отделение 16 15/775
+по пу площадь за день 15 площадь с начала операции 1382
+отделение 16 площадь за день 15 площадь с начала операции 775
 пахота зяби под многолетние травы
-по пу 13/527
-отделение 12 13/260
+по пу площадь за день 13 площадь с начала операции 527
+отделение 12 площадь за день 13 площадь с начала операции 260
 второе дискование сои под пшеница
-по пу 87/2076
-отделение 12 87/386
+по пу площадь за день 87 площадь с начала операции 2076
+отделение 12 площадь за день 87 площадь с начала операции 386
 второе дискование сахарная свекла под пшеница
-по пу 149/899
-отделение 17 149/232
-3-е дискование подсол под пшеница
-по пу 47/949
-отделение 11 47/47
+по пу площадь за день 149 площадь с начала операции 899
+отделение 17 площадь за день 149 площадь с начала операции 232
+3 е дискование подсол под пшеница
+по пу площадь за день 47 площадь с начала операции 949
+отделение 11 площадь за день 47 площадь с начала операции 47
 предпосевная культура под озимая пшеница
-по пу 95/1312
-отделение 11 95/328</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+по пу площадь за день 95 площадь с начала операции 1312
+отделение 11 площадь за день 95 площадь с начала операции 328</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Пахота зяби под мн тр
 По Пу 13/540
@@ -617,64 +656,64 @@
 Отд 12 46/363</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу 13/540
-отделение 12 13/273
+по пу площадь за день 13 площадь с начала операции 540
+отделение 12 площадь за день 13 площадь с начала операции 273
 дискование сахарная свекла
-по пу 70/1004
-отделение 17 70/302
+по пу площадь за день 70 площадь с начала операции 1004
+отделение 17 площадь за день 70 площадь с начала операции 302
 предпосевная культура под озимая пшеница
-по пу 91/1403
-отделение 11 45/373
-отделение 12 46/363</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+по пу площадь за день 91 площадь с начала операции 1403
+отделение 11 площадь за день 45 площадь с начала операции 373
+отделение 12 площадь за день 46 площадь с начала операции 363</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>15.10
 Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 117/7381
 Отд 17-117/1560</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг 117/7381
-отделение 17-117/1560</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15 10
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 117 площадь с начала операции 7381
+отделение 17 площадь за день 117 площадь с начала операции 1560</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>15.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 88/384
 Отд 12- 88/325</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15.10
-внесение противозлакового гербецида на озимая рапсе пу юг 88/384
-отделение 12- 88/325</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15 10
+внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 88 площадь с начала операции 384
+отделение 12 площадь за день 88 площадь с начала операции 325</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Пахота зяби под мн тр
 По Пу 26/566
@@ -694,32 +733,32 @@
 Отд 12 48/70</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу 26/566
-отделение 12 26/299
+по пу площадь за день 26 площадь с начала операции 566
+отделение 12 площадь за день 26 площадь с начала операции 299
 предпосевная культура под озимая пшеница
-по пу 247/1650
-отделение 11 161/534
-отделение 12 86/449
+по пу площадь за день 247 площадь с начала операции 1650
+отделение 11 площадь за день 161 площадь с начала операции 534
+отделение 12 площадь за день 86 площадь с начала операции 449
 дискование сахарная свекла
-по пу 47/1051
-отделение 17 47/349
+по пу площадь за день 47 площадь с начала операции 1051
+отделение 17 площадь за день 47 площадь с начала операции 349
 второе дискование сахарная свекла под пшеница
-по пу 23/922
-отделение 17 23/255
+по пу площадь за день 23 площадь с начала операции 922
+отделение 17 площадь за день 23 площадь с начала операции 255
 выравнивание зяби под многолетние травы
-по пу 48/337
-отделение 12 48/70</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+по пу площадь за день 48 площадь с начала операции 337
+отделение 12 площадь за день 48 площадь с начала операции 70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Пахота зяби под мн тр
 По Пу 13/579
@@ -732,44 +771,44 @@
 Отд 12 101/171</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу 13/579
-отделение 12 13/312
+по пу площадь за день 13 площадь с начала операции 579
+отделение 12 площадь за день 13 площадь с начала операции 312
 второе дискование сахарная свекла
-по пу 35/957
-отделение 17 35/290
+по пу площадь за день 35 площадь с начала операции 957
+отделение 17 площадь за день 35 площадь с начала операции 290
 выравнивание зяби под многолетние травы
-по пу 101/438
-отделение 12 101/171</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+по пу площадь за день 101 площадь с начала операции 438
+отделение 12 площадь за день 101 площадь с начала операции 171</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>16.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 60/444
 Отд 11-60/119</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16.10
-внесение противозлакового гербецида на озимая рапсе пу юг 60/444
-отделение 11-60/119</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16 10
+внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 60 площадь с начала операции 444
+отделение 11 площадь за день 60 площадь с начала операции 119</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Пахота зяби под сою 
 По ПУ 7/1402
@@ -785,28 +824,28 @@
 Отд 17 59/349</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>пахота зяби под сою 
-по пу 7/1402
-отделение 17 7/141
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>пахота зяби под сою
+по пу площадь за день 7 площадь с начала операции 1402
+отделение 17 площадь за день 7 площадь с начала операции 141
 выравнивание зяби под кукурузный силос
-по пу 16/16
-отделение 12 16/16
+по пу площадь за день 16 площадь с начала операции 16
+отделение 12 площадь за день 16 площадь с начала операции 16
 выравнивание зяби под сахарная свекла
-по пу 67/912
-отделение 12 67/376
-2-ое дискование сахарная свекла 
-по пу 59/1041
-отделение 17 59/349</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+по пу площадь за день 67 площадь с начала операции 912
+отделение 12 площадь за день 67 площадь с начала операции 376
+2 ое дискование сахарная свекла
+по пу площадь за день 59 площадь с начала операции 1041
+отделение 17 площадь за день 59 площадь с начала операции 349</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 5/1427
@@ -822,28 +861,28 @@
 Отд 11 35/400</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 5/1427
-отделение 17 5/166
+по пу площадь за день 5 площадь с начала операции 1427
+отделение 17 площадь за день 5 площадь с начала операции 166
 пахота зяби под кукурузный силос
-по пу 26/445
-отделение 11 26/180
+по пу площадь за день 26 площадь с начала операции 445
+отделение 11 площадь за день 26 площадь с начала операции 180
 второе дискование сахарная свекла под пшеница
-по пу 41/1142
-отделение 17 41/450
+по пу площадь за день 41 площадь с начала операции 1142
+отделение 17 площадь за день 41 площадь с начала операции 450
 выравнивание зяби под сахарная свекла
-по пу 35/1269
-отделение 11 35/400</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+по пу площадь за день 35 площадь с начала операции 1269
+отделение 11 площадь за день 35 площадь с начала операции 400</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 13/1440
@@ -862,31 +901,31 @@
 Отд 11 41/41</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 13/1440
-отделение 17 13/179
+по пу площадь за день 13 площадь с начала операции 1440
+отделение 17 площадь за день 13 площадь с начала операции 179
 пахота зяби под кукурузный силос
-по пу 26/471
-отделение 11 26/206
+по пу площадь за день 26 площадь с начала операции 471
+отделение 11 площадь за день 26 площадь с начала операции 206
 дискование сахарная свекла
-по пу 85/1237
-отделение 17 85/535
+по пу площадь за день 85 площадь с начала операции 1237
+отделение 17 площадь за день 85 площадь с начала операции 535
 выравнивание зяби под сахарная свекла
-по пу 45/1314
-отделение 11 10/410
-отделение 12 35/661
+по пу площадь за день 45 площадь с начала операции 1314
+отделение 11 площадь за день 10 площадь с начала операции 410
+отделение 12 площадь за день 35 площадь с начала операции 661
 выравнивание зяби под подсолнухи
-отделение 11 41/41</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+отделение 11 площадь за день 41 площадь с начала операции 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>15.11 Мир
 Пахота зяби под кукурузу 7 га день, 569 га от начала, 84%, 103 га остаток.
@@ -896,41 +935,41 @@
 Работал 1 агрегат.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15.11 мир
-пахота зяби под кукурузу 7 га день, 569 га от начала, 84%, 103 га остаток.
-пахота зяби под сою 50 га день, 849 га от начала, 75%, 290 га остаток.
-работало 4 агрегата.
-выравнивание зяби под сахарную свёклу 43 га день, 917 га от начала, 96 %, 35 га остаток.
-работал 1 агрегат.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15 11 мир
+пахота зяби под кукурузу 7 га день 569 га от начала 84 103 га остаток
+пахота зяби под сою 50 га день 849 га от начала 75 290 га остаток
+работало 4 агрегата
+выравнивание зяби под сахарную свёклу 43 га день 917 га от начала 96 35 га остаток
+работал 1 агрегат</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>ТСК 
 Выравнивание зяби под сою 199 га/ с нарастающим 533 га (8%) Остаток 5564 га
 Осадки 2 мм</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>тск 
-выравнивание зяби под сою 199 га/ с нарастающим 533 га (8%) остаток 5564 га
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>тск
+выравнивание зяби под сою 199 га с нарастающим 533 га 8 остаток 5564 га
 осадки 2 мм</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 11/1451
@@ -948,68 +987,68 @@
 Отд 11 47/89</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 11/1451
-отделение 17 11/190
+по пу площадь за день 11 площадь с начала операции 1451
+отделение 17 площадь за день 11 площадь с начала операции 190
 дискование сахарная свекла
-по пу 118/1355
-отделение 17 118/653
+по пу площадь за день 118 площадь с начала операции 1355
+отделение 17 площадь за день 118 площадь с начала операции 653
 второе дискование сахарная свекла под пшеница
-по пу 35/1177
-отделение 17 35/485
+по пу площадь за день 35 площадь с начала операции 1177
+отделение 17 площадь за день 35 площадь с начала операции 485
 выравнивание зяби под сахарная свекла
-по пу 51/1365
-отделение 11 51/461
+по пу площадь за день 51 площадь с начала операции 1365
+отделение 11 площадь за день 51 площадь с начала операции 461
 выравнивание зяби под подсолнухи
-отделение 11 47/89</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+отделение 11 площадь за день 47 площадь с начала операции 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>23.10
 Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 216/7698
 Отд 17-216/1877</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>23.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг 216/7698
-отделение 17-216/1877</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23 10
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 216 площадь с начала операции 7698
+отделение 17 площадь за день 216 площадь с начала операции 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>23.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 134/578
 Отд 11-134/253</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>23.10
-внесение противозлакового гербецида на озимая рапсе пу юг 134/578
-отделение 11-134/253</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23 10
+внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 134 площадь с начала операции 578
+отделение 11 площадь за день 134 площадь с начала операции 253</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Пахота зяби под сою
 По Пу 13/1464
@@ -1026,48 +1065,48 @@
 Отд 11 30/491</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу 13/1464
-отделение 17 13/203
+по пу площадь за день 13 площадь с начала операции 1464
+отделение 17 площадь за день 13 площадь с начала операции 203
 дискование сахарная свекла
-по пу 36/1391
-отделение 16 25/25
-отделение 17 11/664
+по пу площадь за день 36 площадь с начала операции 1391
+отделение 16 площадь за день 25 площадь с начала операции 25
+отделение 17 площадь за день 11 площадь с начала операции 664
 второе дискование сахарная свекла под пшеница
-по пу 111/1288
-отделение 17 111/596
+по пу площадь за день 111 площадь с начала операции 1288
+отделение 17 площадь за день 111 площадь с начала операции 596
 выравнивание зяби под сахарная свекла
-по пу 30/1395
-отделение 11 30/491</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+по пу площадь за день 30 площадь с начала операции 1395
+отделение 11 площадь за день 30 площадь с начала операции 491</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>ТСК 
 Выравнивание зяби под сою 187 га/ с нарастающим 740 га (13%) Остаток 5357 га
 Осадки 1 мм</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>тск 
-выравнивание зяби под сою 187 га/ с нарастающим 740 га (13%) остаток 5357 га
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>тск
+выравнивание зяби под сою 187 га с нарастающим 740 га 13 остаток 5357 га
 осадки 1 мм</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>19.11 Мир
 Пахота зяби под кукурузу 8 га день, 672 га от начала, 100%
@@ -1076,59 +1115,59 @@
 Выравнивание зяби под подсолнечник 15 га день, 15 га от начала, 2%, остаток 691га. Работал 1 агрегат</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19.11 мир
-пахота зяби под кукурузу 8 га день, 672 га от начала, 100%
-пахота зяби под сою 70 га день, 1009 га от начала, 89%, 130 га остаток.
-работало 3 агрегата.
-выравнивание зяби под подсолнечник 15 га день, 15 га от начала, 2%, остаток 691га. работал 1 агрегат</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19 11 мир
+пахота зяби под кукурузу 8 га день 672 га от начала 100
+пахота зяби под сою 70 га день 1009 га от начала 89 130 га остаток
+работало 3 агрегата
+выравнивание зяби под подсолнечник 15 га день 15 га от начала 2 остаток 691га работал 1 агрегат</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>24.10
 Внесение противозлакового гербецида на оз рапсе ПУ Юг 108/686
 Отд 11-108/361</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>24.10
-внесение противозлакового гербецида на озимая рапсе пу юг 108/686
-отделение 11-108/361</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24 10
+внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 108 площадь с начала операции 686
+отделение 11 площадь за день 108 площадь с начала операции 361</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>24.10
 Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 123/7821
 Отд 16-123/1123</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>24.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг 123/7821
-отделение 16-123/1123</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24 10
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 123 площадь с начала операции 7821
+отделение 16 площадь за день 123 площадь с начала операции 1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>17.07
 Внесение мин удобрений под оз рапс ПУ Юг 206/319
@@ -1136,20 +1175,20 @@
 Отд 17-87/87</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17.07
-внесение минеральные удобрений под озимая рапс пу юг 206/319
-отделение 16- 119/119
-отделение 17-87/87</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17 07
+внесение минеральные удобрений под озимая рапс пу юг площадь за день 206 площадь с начала операции 319
+отделение 16 площадь за день 119 площадь с начала операции 119
+отделение 17 площадь за день 87 площадь с начала операции 87</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>17.07
 Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 83/739
@@ -1158,21 +1197,21 @@
 Отд 12-80/219</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- 83/739
-отделение 17-83/83
-внесение минеральных удобрений под озимая ячмень пу юг 80/320
-отделение 12-80/219</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17 07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 83 площадь с начала операции 739
+отделение 17 площадь за день 83 площадь с начала операции 83
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 80 площадь с начала операции 320
+отделение 12 площадь за день 80 площадь с начала операции 219</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Диск оз пшеницы 
 По Пу 20/8497
@@ -1205,83 +1244,83 @@
 Отд 16 9/101</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>диск озимая пшеницы 
-по пу 20/8497
-отделение 17 20/1793
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы
+по пу площадь за день 20 площадь с начала операции 8497
+отделение 17 площадь за день 20 площадь с начала операции 1793
 второе дискование под сахарная свекла
-по пу 112/817
-отделение 16 112/594
-второе дискование под озимая ячмень 
-по пу 61/352
-отделение 11 32/32
-отделение 12 29/219
+по пу площадь за день 112 площадь с начала операции 817
+отделение 16 площадь за день 112 площадь с начала операции 594
+второе дискование под озимая ячмень
+по пу площадь за день 61 площадь с начала операции 352
+отделение 11 площадь за день 32 площадь с начала операции 32
+отделение 12 площадь за день 29 площадь с начала операции 219
 дискование кукурузный силос
-по пу 119/338
-отделение 12 37/37
-отделение 17 82/301
+по пу площадь за день 119 площадь с начала операции 338
+отделение 12 площадь за день 37 площадь с начала операции 37
+отделение 17 площадь за день 82 площадь с начала операции 301
 выравнивание многолетние травы под озимая пшеница
-отделение 11 44/99
+отделение 11 площадь за день 44 площадь с начала операции 99
 пахота под многолетние травы
-по пу 16/340
-отделение 11 16/169
+по пу площадь за день 16 площадь с начала операции 340
+отделение 11 площадь за день 16 площадь с начала операции 169
 пахота под сахарная свекла
-отделение 12 22/59
+отделение 12 площадь за день 22 площадь с начала операции 59
 чизлование под озимая ячмень
-(дракула)
-по пу 91/222
-отделение 12 91/91
+дракула
+по пу площадь за день 91 площадь с начала операции 222
+отделение 12 площадь за день 91 площадь с начала операции 91
 прикат под озимая ячмень
-по пу 49/141 
-отделение 12 40/40
-отделение 16 9/101</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+по пу площадь за день 49 площадь с начала операции 141
+отделение 12 площадь за день 40 площадь с начала операции 40
+отделение 16 площадь за день 9 площадь с начала операции 101</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>19.07
 Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 120/857
 Отд 16- 120/551</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>19.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- 120/857
-отделение 16- 120/551</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19 07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 120 площадь с начала операции 857
+отделение 16 площадь за день 120 площадь с начала операции 551</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>19.07
 Внесение минеральных удобрений под оз ячмень ПУ Юг 242/562
 Отд 11-242/242</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>19.07
-внесение минеральных удобрений под озимая ячмень пу юг 242/562
-отделение 11-242/242</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19 07
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 242 площадь с начала операции 562
+отделение 11 площадь за день 242 площадь с начала операции 242</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Север 
 Отд7 пах с св 41/501
@@ -1294,44 +1333,44 @@
 Диск под с. Св отд 10 83/203 пу-1065га</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>север 
-отд7 пахота с свекла 41/501
-отд20 20/281 по пу 61/793
-отделение 3 пахота подс.60/231
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>север
+отд7 пахота с свекла площадь за день 41 площадь с начала операции 501
+отд20 площадь за день 20 площадь с начала операции 281 по пу площадь за день 61 площадь с начала операции 793
+отделение 3 пахота подс площадь за день 60 площадь с начала операции 231
 по пу 231
-дискование к. сил отделение 7. 32/352
-пу- 484
-дискование под озимая пшеница езубов 20/281
-дискование под с. свекла отделение 10 83/203 пу-1065га</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+дискование к сил отделение 7 площадь за день 32 площадь с начала операции 352
+пу 484
+дискование под озимая пшеница езубов площадь за день 20 площадь с начала операции 281
+дискование под с свекла отделение 10 площадь за день 83 площадь с начала операции 203 пу 1065га</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Внесение удобрений под рапс отд 7 -138/270
 Дисклвание под рапс 40/172
 Диск после Кук сил отд 7-32/352 по пу 484га</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>внесение удобрений под рапс отделение 7 -138/270
-дисклвание под рапс 40/172
-дискование после кукурузный сил отделение 7-32/352 по пу 484га</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>внесение удобрений под рапс отделение 7 площадь за день 138 площадь с начала операции 270
+дисклвание под рапс площадь за день 40 площадь с начала операции 172
+дискование после кукурузный сил отделение 7 площадь за день 32 площадь с начала операции 352 по пу 484га</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Диск оз пшеницы 
 По Пу 35/8532
@@ -1361,42 +1400,42 @@
 Отд 12 64/155</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>диск озимая пшеницы 
-по пу 35/8532
-отделение 17 35/1828
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы
+по пу площадь за день 35 площадь с начала операции 8532
+отделение 17 площадь за день 35 площадь с начала операции 1828
 второе дискование под сахарная свекла
-по пу 97/914
-отделение 16 97/691
-второе дискование под озимая ячмень 
-по пу 117/469
-отделение 11 117/149
+по пу площадь за день 97 площадь с начала операции 914
+отделение 16 площадь за день 97 площадь с начала операции 691
+второе дискование под озимая ячмень
+по пу площадь за день 117 площадь с начала операции 469
+отделение 11 площадь за день 117 площадь с начала операции 149
 второе дискование под рапс
-по пу 29/142
-отделение 16 29/29
+по пу площадь за день 29 площадь с начала операции 142
+отделение 16 площадь за день 29 площадь с начала операции 29
 дискование кукурузный силос
-по пу 142/480
-отделение 12 75/112
-отделение 17 67/368
+по пу площадь за день 142 площадь с начала операции 480
+отделение 12 площадь за день 75 площадь с начала операции 112
+отделение 17 площадь за день 67 площадь с начала операции 368
 пахота под многолетние травы
-по пу 21/361
-отделение 11 18/187
-отделение 17 3/3
+по пу площадь за день 21 площадь с начала операции 361
+отделение 11 площадь за день 18 площадь с начала операции 187
+отделение 17 площадь за день 3 площадь с начала операции 3
 пахота под сахарная свекла
-отделение 12 22/81
+отделение 12 площадь за день 22 площадь с начала операции 81
 чизлование под озимая ячмень
-(дракула)
-по пу 64/286
-отделение 12 64/155</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+дракула
+по пу площадь за день 64 площадь с начала операции 286
+отделение 12 площадь за день 64 площадь с начала операции 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Диск оз пшеницы 
 По Пу 95/8627
@@ -1422,57 +1461,57 @@
 Отд 12 64/219</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>диск озимая пшеницы 
-по пу 95/8627
-отделение 17 95/1923
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы
+по пу площадь за день 95 площадь с начала операции 8627
+отделение 17 площадь за день 95 площадь с начала операции 1923
 второе дискование под сахарная свекла
-по пу 151/1065
-отделение 16 151/842
-второе дискование под озимая ячмень 
-по пу 136/605
-отделение 11 70/219
-отделение 11 66/285
+по пу площадь за день 151 площадь с начала операции 1065
+отделение 16 площадь за день 151 площадь с начала операции 842
+второе дискование под озимая ячмень
+по пу площадь за день 136 площадь с начала операции 605
+отделение 11 площадь за день 70 площадь с начала операции 219
+отделение 11 площадь за день 66 площадь с начала операции 285
 второе дискование под рапс
-по пу 60/202
-отделение 16 60/89
+по пу площадь за день 60 площадь с начала операции 202
+отделение 16 площадь за день 60 площадь с начала операции 89
 пахота под многолетние травы
-по пу 25/386
-отделение 17 25/28
+по пу площадь за день 25 площадь с начала операции 386
+отделение 17 площадь за день 25 площадь с начала операции 28
 пахота под сахарная свекла
-отделение 12 24/105
+отделение 12 площадь за день 24 площадь с начала операции 105
 чизлование под озимая ячмень
-(дракула)
-по пу 64/350
-отделение 12 64/219</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+дракула
+по пу площадь за день 64 площадь с начала операции 350
+отделение 12 площадь за день 64 площадь с начала операции 219</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>21.07
 Внесение минеральных удобрений под оз ячмень ПУ Юг 78/640
 Отд 12-78/297</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21.07
-внесение минеральных удобрений под озимая ячмень пу юг 78/640
-отделение 12-78/297</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21 07
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 78 площадь с начала операции 640
+отделение 12 площадь за день 78 площадь с начала операции 297</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>21.07
 Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 220/1077
@@ -1480,39 +1519,39 @@
 Отд 16-102/653</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>21.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- 220/1077
-отделение 12-118/234
-отделение 16-102/653</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21 07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 220 площадь с начала операции 1077
+отделение 12 площадь за день 118 площадь с начала операции 234
+отделение 16 площадь за день 102 площадь с начала операции 653</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>21.07
 Внесение мин удобрений под оз рапс ПУ Юг 103/422
 Отд 16-103/222</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>21.07
-внесение минеральные удобрений под озимая рапс пу юг 103/422
-отделение 16-103/222</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21 07
+внесение минеральные удобрений под озимая рапс пу юг площадь за день 103 площадь с начала операции 422
+отделение 16 площадь за день 103 площадь с начала операции 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>2-е диск под оз ячмень
 По Пу 35/640
@@ -1541,41 +1580,41 @@
 Отд 11 60/60</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2-е дискование под озимая ячмень
-по пу 35/640
-отделение 11 23/242
-отделение 12 12/297
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2 е дискование под озимая ячмень
+по пу площадь за день 35 площадь с начала операции 640
+отделение 11 площадь за день 23 площадь с начала операции 242
+отделение 12 площадь за день 12 площадь с начала операции 297
 второе дискование под сахарная свекла
-по пу 54/1119
-отделение 12 54/170
+по пу площадь за день 54 площадь с начала операции 1119
+отделение 12 площадь за день 54 площадь с начала операции 170
 второе дискование под озимая рапс
-по пу 60/262
-отделение 16 60/149
+по пу площадь за день 60 площадь с начала операции 262
+отделение 16 площадь за день 60 площадь с начала операции 149
 дискование кукурузный силос
-по пу 30/510
-отделение 11 30/30
+по пу площадь за день 30 площадь с начала операции 510
+отделение 11 площадь за день 30 площадь с начала операции 30
 пахота под многолетние травы
-по пу 26/412
-отделение 17 26/54
+по пу площадь за день 26 площадь с начала операции 412
+отделение 17 площадь за день 26 площадь с начала операции 54
 пахота под сахарная свекла
-по пу 13/118
-отделение 11 13/13
+по пу площадь за день 13 площадь с начала операции 118
+отделение 11 площадь за день 13 площадь с начала операции 13
 чизлование под озимая ячмень
-(дракула)
-по пу 39/389
-отделение 12 39/258
+дракула
+по пу площадь за день 39 площадь с начала операции 389
+отделение 12 площадь за день 39 площадь с начала операции 258
 прикат многолетние травы под озимая пшеница
-отделение 11 60/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+отделение 11 площадь за день 60 площадь с начала операции 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Диск оз пшеницы 
 По Пу 19/8646
@@ -1610,47 +1649,47 @@
 Отд 11 39/99</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>диск озимая пшеницы 
-по пу 19/8646
-отделение 17 19/1942
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы
+по пу площадь за день 19 площадь с начала операции 8646
+отделение 17 площадь за день 19 площадь с начала операции 1942
 второе дискование под сахарная свекла
-по пу 60/1179
-отделение 12 60/230
+по пу площадь за день 60 площадь с начала операции 1179
+отделение 12 площадь за день 60 площадь с начала операции 230
 второе дискование под озимая рапс
-по пу 102/364
-отделение 16 102/251
+по пу площадь за день 102 площадь с начала операции 364
+отделение 16 площадь за день 102 площадь с начала операции 251
 второе дискование под озимая ячмень
-по пу 4/644
-отделение 17 4/4
+по пу площадь за день 4 площадь с начала операции 644
+отделение 17 площадь за день 4 площадь с начала операции 4
 дискование кукурузный силос
-по пу 70/580
-отделение 11 70/100
+по пу площадь за день 70 площадь с начала операции 580
+отделение 11 площадь за день 70 площадь с начала операции 100
 чизлование под озимая ячмень
-по пу 67/456
-отделение 11 28/28
-отделение 12 39/297
+по пу площадь за день 67 площадь с начала операции 456
+отделение 11 площадь за день 28 площадь с начала операции 28
+отделение 12 площадь за день 39 площадь с начала операции 297
 пахота под многолетние травы
-по пу 2/414
-отделение 17 2/56
+по пу площадь за день 2 площадь с начала операции 414
+отделение 17 площадь за день 2 площадь с начала операции 56
 пахота под сахарная свекла
-по пу 19/137
-отделение 11 8/21
-отделение 12 11/116
+по пу площадь за день 19 площадь с начала операции 137
+отделение 11 площадь за день 8 площадь с начала операции 21
+отделение 12 площадь за день 11 площадь с начала операции 116
 прикат под озимая ячмень
-по пу 179/320
-отделение 12 179/219
+по пу площадь за день 179 площадь с начала операции 320
+отделение 12 площадь за день 179 площадь с начала операции 219
 прикат многолетние травы под озимая пшеница
-отделение 11 39/99</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+отделение 11 площадь за день 39 площадь с начала операции 99</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Пахота под сах св
 По Пу 40/183
@@ -1673,54 +1712,54 @@
 Отд 12 2/2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу 40/183
-отделение 11 3/24
-отделение 12 24/146
-отделение 16 13/13
+по пу площадь за день 40 площадь с начала операции 183
+отделение 11 площадь за день 3 площадь с начала операции 24
+отделение 12 площадь за день 24 площадь с начала операции 146
+отделение 16 площадь за день 13 площадь с начала операции 13
 пахота под многолетние травы
-по пу 3/417
-отделение 17 3/59
+по пу площадь за день 3 площадь с начала операции 417
+отделение 17 площадь за день 3 площадь с начала операции 59
 дискование озимая пшеницы
-по пу 40/8686
-отделение 12 40/2542
+по пу площадь за день 40 площадь с начала операции 8686
+отделение 12 площадь за день 40 площадь с начала операции 2542
 второе дискование под сахарная свекла
-по пу 4/1183
-отделение 12 4/234
+по пу площадь за день 4 площадь с начала операции 1183
+отделение 12 площадь за день 4 площадь с начала операции 234
 второе дискование под озимая ячмень
-по пу 35/679
-отделение 17 35/39
+по пу площадь за день 35 площадь с начала операции 679
+отделение 17 площадь за день 35 площадь с начала операции 39
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+отделение 12 площадь за день 2 площадь с начала операции 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>25.07
 Внесение минеральных удобрений под оз ячмень ПУ Юг 69/819
 Отд 17-110/179</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>25.07
-внесение минеральных удобрений под озимая ячмень пу юг 69/819
-отделение 17-110/179</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25 07
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 69 площадь с начала операции 819
+отделение 17 площадь за день 110 площадь с начала операции 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Пахота под сах св
 По Пу 58/241
@@ -1752,63 +1791,63 @@
 Отд 12 78/297</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу 58/241
-отделение 11 13/37
-отделение 12 24/170
-отделение 16 21/34
+по пу площадь за день 58 площадь с начала операции 241
+отделение 11 площадь за день 13 площадь с начала операции 37
+отделение 12 площадь за день 24 площадь с начала операции 170
+отделение 16 площадь за день 21 площадь с начала операции 34
 пахота под многолетние травы
-по пу 11/428
-отделение 17 11/70
+по пу площадь за день 11 площадь с начала операции 428
+отделение 17 площадь за день 11 площадь с начала операции 70
 дискование озимая пшеницы
-по пу 31/8717
-отделение 12 31/2573
+по пу площадь за день 31 площадь с начала операции 8717
+отделение 12 площадь за день 31 площадь с начала операции 2573
 дискование кукурузный силос
-по пу 26/607
-отделение 12 26/138
+по пу площадь за день 26 площадь с начала операции 607
+отделение 12 площадь за день 26 площадь с начала операции 138
 второе дискование под рапс
-по пу 22/386
-отделение 16 22/273
+по пу площадь за день 22 площадь с начала операции 386
+отделение 16 площадь за день 22 площадь с начала операции 273
 второе дискование под озимая ячмень
-по пу 43/722
-отделение 17 43/82
+по пу площадь за день 43 площадь с начала операции 722
+отделение 17 площадь за день 43 площадь с начала операции 82
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 10/12
+отделение 12 площадь за день 10 площадь с начала операции 12
 чизлование под озимая ячмень
-по пу 30/457
-отделение 11 30/59
-прикат под озимая ячмень 
-по пу 78/398
-отделение 12 78/297</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+по пу площадь за день 30 площадь с начала операции 457
+отделение 11 площадь за день 30 площадь с начала операции 59
+прикат под озимая ячмень
+по пу площадь за день 78 площадь с начала операции 398
+отделение 12 площадь за день 78 площадь с начала операции 297</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>26.07
 Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 80/1157
 Отд 12-80/314</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>26.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- 80/1157
-отделение 12-80/314</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>26 07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 80 площадь с начала операции 1157
+отделение 12 площадь за день 80 площадь с начала операции 314</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>ПУ «ЮГ» 3.03
 Выравнивание зяби под сах св
@@ -1833,37 +1872,37 @@
 Отделение 94/99 закончили</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>пу «юг» 3.03
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>пу юг 3 03
 выравнивание зяби под сахарная свекла
-по пу 130/2657
-отделение 11 31/705
-отделение 17 99/687
+по пу площадь за день 130 площадь с начала операции 2657
+отделение 11 площадь за день 31 площадь с начала операции 705
+отделение 17 площадь за день 99 площадь с начала операции 687
 выравнивание зяби под подсолнечник
-по пу 50/599
-отделение 11 50/50
+по пу площадь за день 50 площадь с начала операции 599
+отделение 11 площадь за день 50 площадь с начала операции 50
 выравнивание зяби по кукурузный силос
-по пу 167/399
-отделение 11 50/73
-отделение 17 117/156
-выравнивание зяби под сою 
-по пу 45/399
-отделение 16 45/334
-посев овса 
-по пу 94/99
-отделение 11 94/99 закончили
-прокатывание посевов овса 
-по пу 94/99
-отделение 94/99 закончили</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+по пу площадь за день 167 площадь с начала операции 399
+отделение 11 площадь за день 50 площадь с начала операции 73
+отделение 17 площадь за день 117 площадь с начала операции 156
+выравнивание зяби под сою
+по пу площадь за день 45 площадь с начала операции 399
+отделение 16 площадь за день 45 площадь с начала операции 334
+посев овса
+по пу площадь за день 94 площадь с начала операции 99
+отделение 11 площадь за день 94 площадь с начала операции 99 закончили
+прокатывание посевов овса
+по пу площадь за день 94 площадь с начала операции 99
+отделение площадь за день 94 площадь с начала операции 99 закончили</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>ПУ «ЮГ» 4.03 
 Выравнивание зяби под сах св
@@ -1885,34 +1924,34 @@
 Отделение 16 60/394</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>пу «юг» 4.03 
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>пу юг 4 03
 выравнивание зяби под сахарная свекла
-по пу 92/2749
-отделение 17 92/779 
+по пу площадь за день 92 площадь с начала операции 2749
+отделение 17 площадь за день 92 площадь с начала операции 779
 выравнивание зяби под подсолнечник
-по пу 125/724
-отделение 11 83/133
-отделение 17 42/42
+по пу площадь за день 125 площадь с начала операции 724
+отделение 11 площадь за день 83 площадь с начала операции 133
+отделение 17 площадь за день 42 площадь с начала операции 42
 выравнивание зяби по кукурузный силос
-по пу 86/485
-отделение 11 33/106
-отделение 17 53/209
+по пу площадь за день 86 площадь с начала операции 485
+отделение 11 площадь за день 33 площадь с начала операции 106
+отделение 17 площадь за день 53 площадь с начала операции 209
 выравнивание зяби под кукурузное зерно
-по пу 17/588
-отделение 11 17/108
-выравнивание зяби под сою 
-по пу 60/459
-отделение 16 60/394</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+по пу площадь за день 17 площадь с начала операции 588
+отделение 11 площадь за день 17 площадь с начала операции 108
+выравнивание зяби под сою
+по пу площадь за день 60 площадь с начала операции 459
+отделение 16 площадь за день 60 площадь с начала операции 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Вырав зяби под подсол
 По Пу 199/923
@@ -1930,30 +1969,30 @@
 Отд 11 43/149</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>вырав зяби под подсол
-по пу 199/923
-отделение 11 108/241
-отделение 17 91/133
-выравнивание зяби под сах/ свекла
-по пу 78/2827
-отделение 17 78/857
+по пу площадь за день 199 площадь с начала операции 923
+отделение 11 площадь за день 108 площадь с начала операции 241
+отделение 17 площадь за день 91 площадь с начала операции 133
+выравнивание зяби под сах свекла
+по пу площадь за день 78 площадь с начала операции 2827
+отделение 17 площадь за день 78 площадь с начала операции 857
 выравнивание зяби под сою
-по пу 121/580
-отделение 11 80/80
-отделение 16 41/381
+по пу площадь за день 121 площадь с начала операции 580
+отделение 11 площадь за день 80 площадь с начала операции 80
+отделение 16 площадь за день 41 площадь с начала операции 381
 выравнивание зяби под кукурузный силос
-по пу 43/528
-отделение 11 43/149</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+по пу площадь за день 43 площадь с начала операции 528
+отделение 11 площадь за день 43 площадь с начала операции 149</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Выравн зяби под сах/св
 По Пу 24/2851
@@ -1977,36 +2016,36 @@
 Отд 17 56/56</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>выравн зяби под сахарная свекла
-по пу 24/2851
-отделение 17 24/881
+по пу площадь за день 24 площадь с начала операции 2851
+отделение 17 площадь за день 24 площадь с начала операции 881
 выравнивание зяби под подсолнухи
-по пу 71/994
-отделение 11 37/278
-отделение 17 34/167
+по пу площадь за день 71 площадь с начала операции 994
+отделение 11 площадь за день 37 площадь с начала операции 278
+отделение 17 площадь за день 34 площадь с начала операции 167
 выравнивание под кукурузный силос
-по пу 32/560
-отделение 17 32/241
+по пу площадь за день 32 площадь с начала операции 560
+отделение 17 площадь за день 32 площадь с начала операции 241
 выравнивание под кукурузное зерно
-по пу 74/662
-отделение 16 18/18
-отделение 17 56/124
+по пу площадь за день 74 площадь с начала операции 662
+отделение 16 площадь за день 18 площадь с начала операции 18
+отделение 17 площадь за день 56 площадь с начала операции 124
 выравнивание под сою
-по пу 133/713
-отделение 11 113/193
-отделение 16 20/401
+по пу площадь за день 133 площадь с начала операции 713
+отделение 11 площадь за день 113 площадь с начала операции 193
+отделение 16 площадь за день 20 площадь с начала операции 401
 второе выравнивание под кукурузное зерно
-отделение 17 56/56</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+отделение 17 площадь за день 56 площадь с начала операции 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Выравн под кук/силос
 ПоПу 153/822
@@ -2018,24 +2057,24 @@
 Отд 17 45/83</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>выравн под кукурузный силос
-попу 153/822
-отделение 11 122/352
-отделение 17 31/300
+попу площадь за день 153 площадь с начала операции 822
+отделение 11 площадь за день 122 площадь с начала операции 352
+отделение 17 площадь за день 31 площадь с начала операции 300
 выравнивание под сою
-попу 73/930
-отделение 11 28/327
-отделение 17 45/83</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+попу площадь за день 73 площадь с начала операции 930
+отделение 11 площадь за день 28 площадь с начала операции 327
+отделение 17 площадь за день 45 площадь с начала операции 83</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>10.03 день
 2-я подкормка озимых, ПУ "Юг" - 1749/2559
@@ -2047,24 +2086,24 @@
 Отд 17- 309/309( амазон 309/309)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>10.03 день
-вторая подкормка озимых, пу "юг" - 1749/2559
-(в т.ч амазон-1082/1371
-пневмоход-667/1188)
-отд11- 307/307 (амазон 307/307) 
-отделение 12- 671/671( амазон 318/318; пневмоход 353/353) 
-отделение 16- 462/1272( амазон 148/437; пневмоход 314/835) 
-отделение 17- 309/309( амазон 309/309)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>10 03 день
+вторая подкормка озимых пу юг площадь за день 1749 площадь с начала операции 2559
+в т ч амазон площадь за день 1082 площадь с начала операции 1371
+пневмоход площадь за день 667 площадь с начала операции 1188
+отд11 площадь за день 307 площадь с начала операции 307 амазон площадь за день 307 площадь с начала операции 307
+отделение 12 площадь за день 671 площадь с начала операции 671 амазон площадь за день 318 площадь с начала операции 318 пневмоход площадь за день 353 площадь с начала операции 353
+отделение 16 площадь за день 462 площадь с начала операции 1272 амазон площадь за день 148 площадь с начала операции 437 пневмоход площадь за день 314 площадь с начала операции 835
+отделение 17 площадь за день 309 площадь с начала операции 309 амазон площадь за день 309 площадь с начала операции 309</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>16.11 Мир
 Пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
@@ -2072,20 +2111,20 @@
 Работало 2 агрегата.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>16.11 мир
-пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
-пахота зяби под сою 30 га день, 879 га от начала, 77%, 260 га остаток.
-работало 2 агрегата.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16 11 мир
+пахота зяби под кукурузу 30 га день 599 га от начала 89 73 га остаток
+пахота зяби под сою 30 га день 879 га от начала 77 260 га остаток
+работало 2 агрегата</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>17.11 Мир
 Пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
@@ -2093,20 +2132,20 @@
 Работало 2 агрегата.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>17.11 мир
-пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
-пахота зяби под сою 20 га день, 899 га от начала, 79%, 240 га остаток.
-работало 2 агрегата.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>17 11 мир
+пахота зяби под кукурузу 40 га день 639 га от начала 95 33 га остаток
+пахота зяби под сою 20 га день 899 га от начала 79 240 га остаток
+работало 2 агрегата</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>18.11 Мир
 Пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
@@ -2115,21 +2154,21 @@
 Выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. Работал 1 агрегат</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>18.11 мир
-пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
-пахота зяби под сою 40 га день, 939 га от начала, 83%, 200 га остаток.
-работало 3 агрегата.
-выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. работал 1 агрегат</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>18 11 мир
+пахота зяби под кукурузу 25 га день 664 га от начала 99 8 га остаток
+пахота зяби под сою 40 га день 939 га от начала 83 200 га остаток
+работало 3 агрегата
+выравнивание зяби под сахарную свёклу 45 га день 952 га от начала 100 работал 1 агрегат</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>11.03 ночь
 2-я подкормка озимых, ПУ "Юг" - 2017/4576
@@ -2141,24 +2180,24 @@
 Отд 17- 420/729( амазон 420/729)</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>11.03 ночь
-вторая подкормка озимых, пу "юг" - 2017/4576
-(в т.ч амазон-1263/2634
-пневмоход-754/1942)
-отд11- 337/644 (амазон 337/644) 
-отделение 12- 767/1438( амазон 284/602; пневмоход 483/836) 
-отделение 16- 493/1765( амазон 222/659; пневмоход 271/1106) 
-отделение 17- 420/729( амазон 420/729)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>11 03 ночь
+вторая подкормка озимых пу юг площадь за день 2017 площадь с начала операции 4576
+в т ч амазон площадь за день 1263 площадь с начала операции 2634
+пневмоход площадь за день 754 площадь с начала операции 1942
+отд11 площадь за день 337 площадь с начала операции 644 амазон площадь за день 337 площадь с начала операции 644
+отделение 12 площадь за день 767 площадь с начала операции 1438 амазон площадь за день 284 площадь с начала операции 602 пневмоход площадь за день 483 площадь с начала операции 836
+отделение 16 площадь за день 493 площадь с начала операции 1765 амазон площадь за день 222 площадь с начала операции 659 пневмоход площадь за день 271 площадь с начала операции 1106
+отделение 17 площадь за день 420 площадь с начала операции 729 амазон площадь за день 420 площадь с начала операции 729</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>11.03 день
 2-я подкормка озимых, ПУ "Юг" - 1606/6182
@@ -2170,24 +2209,24 @@
 Отд 17- 342/1071( амазон 342/1071)</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>11.03 день
-вторая подкормка озимых, пу "юг" - 1606/6182
-(в т.ч амазон-1048/3682
-пневмоход-558/2500)
-отд11- 486/1130 (амазон 356/1000; пневмоход 130/130) 
-отделение 12- 778/2216( амазон 350/952; пневмоход 428/1264) 
-отделение 16- 0/1765( амазон 0/659; пневмоход 0/1106) 
-отделение 17- 342/1071( амазон 342/1071)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11 03 день
+вторая подкормка озимых пу юг площадь за день 1606 площадь с начала операции 6182
+в т ч амазон площадь за день 1048 площадь с начала операции 3682
+пневмоход площадь за день 558 площадь с начала операции 2500
+отд11 площадь за день 486 площадь с начала операции 1130 амазон площадь за день 356 площадь с начала операции 1000 пневмоход площадь за день 130 площадь с начала операции 130
+отделение 12 площадь за день 778 площадь с начала операции 2216 амазон площадь за день 350 площадь с начала операции 952 пневмоход площадь за день 428 площадь с начала операции 1264
+отделение 16 площадь за день 0 площадь с начала операции 1765 амазон площадь за день 0 площадь с начала операции 659 пневмоход площадь за день 0 площадь с начала операции 1106
+отделение 17 площадь за день 342 площадь с начала операции 1071 амазон площадь за день 342 площадь с начала операции 1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Пахота под Кук зерно
 ПоПу 6/1096
@@ -2197,22 +2236,22 @@
 Отд 11 45/503</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>пахота под кукурузный зерно
-попу 6/1096
-отделение 12 6/549
+попу площадь за день 6 площадь с начала операции 1096
+отделение 12 площадь за день 6 площадь с начала операции 549
 выравнивание под сою
-попу 45/1106
-отделение 11 45/503</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+попу площадь за день 45 площадь с начала операции 1106
+отделение 11 площадь за день 45 площадь с начала операции 503</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>12.03 день
 2-я подкормка озимых, ПУ "Юг" - 129/6700
@@ -2222,22 +2261,22 @@
 Вымочки ПоПу 56 га</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>12.03 день
-вторая подкормка озимых, пу "юг" - 129/6700
-(в т.ч амазон- 129/4200
-пневмоход-0/2500)
-отделение 17- 129/1589( амазон 129/1589)
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12 03 день
+вторая подкормка озимых пу юг площадь за день 129 площадь с начала операции 6700
+в т ч амазон площадь за день 129 площадь с начала операции 4200
+пневмоход площадь за день 0 площадь с начала операции 2500
+отделение 17 площадь за день 129 площадь с начала операции 1589 амазон площадь за день 129 площадь с начала операции 1589
 вымочки попу 56 га</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Пахота под сою
 ПоПу 14/1664
@@ -2253,28 +2292,28 @@
 Отд 16 80/80</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>пахота под сою
-попу 14/1664
-отделение 11 14/897
+попу площадь за день 14 площадь с начала операции 1664
+отделение 11 площадь за день 14 площадь с начала операции 897
 выравнивание под сою
-попу 164/1270
-отделение 11 95/598
-отделение 12 35/154
-отделение 17 34/117
+попу площадь за день 164 площадь с начала операции 1270
+отделение 11 площадь за день 95 площадь с начала операции 598
+отделение 12 площадь за день 35 площадь с начала операции 154
+отделение 17 площадь за день 34 площадь с начала операции 117
 предпосевная культура под сахарная свекла
-попу 119/119
-отделение 12 39/39
-отделение 16 80/80</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+попу площадь за день 119 площадь с начала операции 119
+отделение 12 площадь за день 39 площадь с начала операции 39
+отделение 16 площадь за день 80 площадь с начала операции 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Выравн под сою
 ПоПу 118/1388
@@ -2295,33 +2334,33 @@
 Отд 16 78/78</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>выравн под сою
-попу 118/1388
-отделение 11 51/649
-отделение 12 67/221
+попу площадь за день 118 площадь с начала операции 1388
+отделение 11 площадь за день 51 площадь с начала операции 649
+отделение 12 площадь за день 67 площадь с начала операции 221
 выравнивание под кукурузный зерно
-попу 25/906
-отделение 12 25/437
+попу площадь за день 25 площадь с начала операции 906
+отделение 12 площадь за день 25 площадь с начала операции 437
 предпосевная культура под сахарная свекла
-попу 265/384
-отделение 11 47/47
-отделение 12 65/104
-отделение 16 103/183
-отделение 17 50/50
+попу площадь за день 265 площадь с начала операции 384
+отделение 11 площадь за день 47 площадь с начала операции 47
+отделение 12 площадь за день 65 площадь с начала операции 104
+отделение 16 площадь за день 103 площадь с начала операции 183
+отделение 17 площадь за день 50 площадь с начала операции 50
 посев сахарная свеклы
-попу 107/107
-отделение 12 29/29
-отделение 16 78/78</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+попу площадь за день 107 площадь с начала операции 107
+отделение 12 площадь за день 29 площадь с начала операции 29
+отделение 16 площадь за день 78 площадь с начала операции 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Рассвет
 Сев сах. Свеклы 886/10224/91%
@@ -2332,23 +2371,23 @@
 Сев подсол. 10/10</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы 886/10224/91%
-культура. сахарная свёкла 551/10793/96%
-2-подкормка озимая пшеницы32231/100%
-герб. обработка озимая пшеницы 285/928/3%
-пред.культ. подсол.32/32
-посев подсол. 10/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+посев сахарная свеклы площадь за день 886 площадь с начала операции 10224 91
+культура сахарная свёкла площадь за день 551 площадь с начала операции 10793 96
+2 подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100
+герб обработка озимая пшеницы площадь за день 285 площадь с начала операции 928 3
+пред культ подсол площадь за день 32 площадь с начала операции 32
+посев подсол площадь за день 10 площадь с начала операции 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Выравн под сою
 ПоПу 53/1441
@@ -2367,31 +2406,31 @@
 Отд 16 10/88</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>выравн под сою
-попу 53/1441
-отделение 11 23/672
-отделение 12 30/251
+попу площадь за день 53 площадь с начала операции 1441
+отделение 11 площадь за день 23 площадь с начала операции 672
+отделение 12 площадь за день 30 площадь с начала операции 251
 выравнивание под кукурузный силос
-попу 6/871
-отделение 11 6/401
+попу площадь за день 6 площадь с начала операции 871
+отделение 11 площадь за день 6 площадь с начала операции 401
 предпосевная культура под сахарная свекла
-попу 22/406
-отделение 11 20/67
-отделение 12 2/106
+попу площадь за день 22 площадь с начала операции 406
+отделение 11 площадь за день 20 площадь с начала операции 67
+отделение 12 площадь за день 2 площадь с начала операции 106
 посев сахарная свекла
-попу 15/122
-отделение 11 5/5
-отделение 16 10/88</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+попу площадь за день 15 площадь с начала операции 122
+отделение 11 площадь за день 5 площадь с начала операции 5
+отделение 16 площадь за день 10 площадь с начала операции 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Выравн под куклы зерно
 ПоПу 54/960
@@ -2414,35 +2453,35 @@
 Отд 17 10/10</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>выравн под куклы зерно
-попу 54/960
-отделение 11 24/166
-отделение 12 30/467
+попу площадь за день 54 площадь с начала операции 960
+отделение 11 площадь за день 24 площадь с начала операции 166
+отделение 12 площадь за день 30 площадь с начала операции 467
 выравнивание под кукурузный силос
-попу 6/877
-отделение 11 6/407
+попу площадь за день 6 площадь с начала операции 877
+отделение 11 площадь за день 6 площадь с начала операции 407
 предпосевная культура под сахарная свекла
-попу 247/653
-отделение 11 27/94
-отделение 12 101/207
-отделение 16 64/247
-отделение 17 55/105
+попу площадь за день 247 площадь с начала операции 653
+отделение 11 площадь за день 27 площадь с начала операции 94
+отделение 12 площадь за день 101 площадь с начала операции 207
+отделение 16 площадь за день 64 площадь с начала операции 247
+отделение 17 площадь за день 55 площадь с начала операции 105
 посев сахарная свекла
-попу 100/222
-отделение 11 12/17
-отделение 12 16/45
-отделение 16 62/150
-отделение 17 10/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+попу площадь за день 100 площадь с начала операции 222
+отделение 11 площадь за день 12 площадь с начала операции 17
+отделение 12 площадь за день 16 площадь с начала операции 45
+отделение 16 площадь за день 62 площадь с начала операции 150
+отделение 17 площадь за день 10 площадь с начала операции 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Восход
 Посев кукурузы
@@ -2459,29 +2498,29 @@
 День-184/289га55%</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>восход
 посев кукурузы
-день-86/107га, 10%
+день площадь за день 86 площадь с начала операции 107га 10
 предпосевная культура
-день-177/396га, 37%
+день площадь за день 177 площадь с начала операции 396га 37
 вторая подкорм озимая пшеница
-день-739/1431га65%
+день площадь за день 739 площадь с начала операции 1431га65
 срадство защиты растений по озимая пшеница
-день-136/272га12%
+день площадь за день 136 площадь с начала операции 272га12
 срадство защиты растений по озимая ячмень
-день-71/71га22%
+день площадь за день 71 площадь с начала операции 71га22
 довсходовое боронование подсолнечника
-день-184/289га55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+день площадь за день 184 площадь с начала операции 289га55</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Выравн под кук зерно
 ПоПу 82/1042
@@ -2503,34 +2542,34 @@
 Отд 17 111/121</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>выравн под кукурузный зерно
-попу 82/1042
-отделение 12 82/549
+попу площадь за день 82 площадь с начала операции 1042
+отделение 12 площадь за день 82 площадь с начала операции 549
 выравнивание под кукурузный силос
-попу 30/907
-отделение 11 30/437
+попу площадь за день 30 площадь с начала операции 907
+отделение 11 площадь за день 30 площадь с начала операции 437
 предпосевная культура под сахарная свекла
-попу 531/1184
-отделение 11 80/174
-отделение 12 260/467
-отделение 16 101/348
-отделение 17 90/195
+попу площадь за день 531 площадь с начала операции 1184
+отделение 11 площадь за день 80 площадь с начала операции 174
+отделение 12 площадь за день 260 площадь с начала операции 467
+отделение 16 площадь за день 101 площадь с начала операции 348
+отделение 17 площадь за день 90 площадь с начала операции 195
 посев сахарная свекла
-попу 357/579
-отделение 11 80/97
-отделение 12 85/130
-отделение 16 81/231
-отделение 17 111/121</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+попу площадь за день 357 площадь с начала операции 579
+отделение 11 площадь за день 80 площадь с начала операции 97
+отделение 12 площадь за день 85 площадь с начала операции 130
+отделение 16 площадь за день 81 площадь с начала операции 231
+отделение 17 площадь за день 111 площадь с начала операции 121</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Выравн под кук силос
 ПоПу 25/932
@@ -2549,31 +2588,31 @@
 Отд 17 126/247</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>выравн под кукурузный силос
-попу 25/932
-отделение 11 25/462
+попу площадь за день 25 площадь с начала операции 932
+отделение 11 площадь за день 25 площадь с начала операции 462
 предпосевная культура под сахарная свекла
-попу 452/1636
-отделение 11 78/252
-отделение 12 143/610
-отделение 16 121/469 5га вымочки
-отделение 17 110/305
+попу площадь за день 452 площадь с начала операции 1636
+отделение 11 площадь за день 78 площадь с начала операции 252
+отделение 12 площадь за день 143 площадь с начала операции 610
+отделение 16 площадь за день 121 площадь с начала операции 469 5га вымочки
+отделение 17 площадь за день 110 площадь с начала операции 305
 посев сахарная свекла
-попу 403/982
-отделение 11 73/170
-отделение 12 139/269
-отделение 16 65/296
-отделение 17 126/247</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+попу площадь за день 403 площадь с начала операции 982
+отделение 11 площадь за день 73 площадь с начала операции 170
+отделение 12 площадь за день 139 площадь с начала операции 269
+отделение 16 площадь за день 65 площадь с начала операции 296
+отделение 17 площадь за день 126 площадь с начала операции 247</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Предп культ под сах св
 ПоПу 211/1847
@@ -2586,25 +2625,25 @@
 Отд 17 132/379</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>предп культура под сахарная свекла
-попу 211/1847
-отделение 11 81/333
-отделение 17 130/435
+попу площадь за день 211 площадь с начала операции 1847
+отделение 11 площадь за день 81 площадь с начала операции 333
+отделение 17 площадь за день 130 площадь с начала операции 435
 посев сахарная свекла
-попу 268/1250
-отделение 11 100/270
-отделение 12 36/305
-отделение 17 132/379</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+попу площадь за день 268 площадь с начала операции 1250
+отделение 11 площадь за день 100 площадь с начала операции 270
+отделение 12 площадь за день 36 площадь с начала операции 305
+отделение 17 площадь за день 132 площадь с начала операции 379</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Вырав под Кук зерно
 ПоПу 51/1093
@@ -2624,32 +2663,32 @@
 Отд 16 63/63</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>вырав под кукурузный зерно
-попу 51/1093
-отделение 11 51/217
+попу площадь за день 51 площадь с начала операции 1093
+отделение 11 площадь за день 51 площадь с начала операции 217
 предпосевная культура под сахарная свекла
-попу 288/2135
-отделение 11 78/411
-отделение 12 87/697
-отделение 17 123/558
+попу площадь за день 288 площадь с начала операции 2135
+отделение 11 площадь за день 78 площадь с начала операции 411
+отделение 12 площадь за день 87 площадь с начала операции 697
+отделение 17 площадь за день 123 площадь с начала операции 558
 посев сахарная свекла
-попу 398/1648
-отделение 11 89/359
-отделение 12 98/403
-отделение 16 84/380
-отделение 17 127/506
+попу площадь за день 398 площадь с начала операции 1648
+отделение 11 площадь за день 89 площадь с начала операции 359
+отделение 12 площадь за день 98 площадь с начала операции 403
+отделение 16 площадь за день 84 площадь с начала операции 380
+отделение 17 площадь за день 127 площадь с начала операции 506
 внесен кас под озимая пшеница
-отделение 16 63/63</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+отделение 16 площадь за день 63 площадь с начала операции 63</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Вырав под сою
 ПоПу 16/1457
@@ -2667,39 +2706,22 @@
 Отд 17 30/536</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>вырав под сою
-попу 16/1457
-отделение 11 16/688
+попу площадь за день 16 площадь с начала операции 1457
+отделение 11 площадь за день 16 площадь с начала операции 688
 предпосевная культура под сахарная свекла
-попу 152/2287
-отделение 11 72/483
-отделение 12 50/747
-отделение 17 30/588
+попу площадь за день 152 площадь с начала операции 2287
+отделение 11 площадь за день 72 площадь с начала операции 483
+отделение 12 площадь за день 50 площадь с начала операции 747
+отделение 17 площадь за день 30 площадь с начала операции 588
 посев сахарная свекла
-попу 284/1932
-отделение 11 42/401
-отделение 12 123/526
-отделение 16 89/469 5га вымочки
-отделение 17 30/536</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Подкормка Кас-32 по оз.пшенице ПУ"Юг"- 99/162
-Отд 16-99/162</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- 99/162
-отделение 16-99/162</t>
+попу площадь за день 284 площадь с начала операции 1932
+отделение 11 площадь за день 42 площадь с начала операции 401
+отделение 12 площадь за день 123 площадь с начала операции 526
+отделение 16 площадь за день 89 площадь с начала операции 469 5га вымочки
+отделение 17 площадь за день 30 площадь с начала операции 536</t>
         </is>
       </c>
     </row>
@@ -2708,6 +2730,23 @@
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
+        <is>
+          <t>Подкормка Кас-32 по оз.пшенице ПУ"Юг"- 99/162
+Отд 16-99/162</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>подкормка кас 32 по оз пшенице пу юг площадь за день 99 площадь с начала операции 162
+отделение 16 площадь за день 99 площадь с начала операции 162</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>30.03.25г Мир.
 Предпосевная культивация под подсолнечник 50/97/609 - 14%
@@ -2716,21 +2755,21 @@
 На данный момент осадки в 2х районах до 3мм</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>30.03.25г мир.
-предпосевная культивация под подсолнечник 50/97/609 - 14%
-посев подсолнечника 17/47/659 - 6%
-вторая подкормка озимой пшеницы 371/5118/166 - 97%
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>30 03 25г мир
+предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97 609 14
+посев подсолнечника площадь за день 17 площадь с начала операции 47 659 6
+вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118 166 97
 на данный момент осадки в 2х районах до 3мм</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>АО Кропоткинское
 30.03.2024
@@ -2741,23 +2780,23 @@
 Предпосевная культивация под подсолнечник 70/70</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>ао кропоткинское
-30.03.2024
-2 подкормка озимой пшеницы 504/7758
-посев сах.свеклы 241/1806 87% (7ед)
+30 03 2024
+2 подкормка озимой пшеницы площадь за день 504 площадь с начала операции 7758
+посев сах свеклы площадь за день 241 площадь с начала операции 1806 87 7ед
 осталось 335га
-выравнивание зяби под кукурузу 70/2874
-предпосевная культивация под подсолнечник 70/70</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+выравнивание зяби под кукурузу площадь за день 70 площадь с начала операции 2874
+предпосевная культивация под подсолнечник площадь за день 70 площадь с начала операции 70</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>27.07
 Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 454/1715
@@ -2766,21 +2805,21 @@
 Отд 17-177/260</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>27.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- 454/1715
-отделение 11-102/209
-отделение 12-175/593
-отделение 17-177/260</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>27 07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 454 площадь с начала операции 1715
+отделение 11 площадь за день 102 площадь с начала операции 209
+отделение 12 площадь за день 175 площадь с начала операции 593
+отделение 17 площадь за день 177 площадь с начала операции 260</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Пахота под сах св
 По Пу 50/379
@@ -2806,38 +2845,38 @@
 Отд 11 60/60</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу 50/379
-отделение 12 36/240
-отделение 16 14/79
+по пу площадь за день 50 площадь с начала операции 379
+отделение 12 площадь за день 36 площадь с начала операции 240
+отделение 16 площадь за день 14 площадь с начала операции 79
 чизлование под озимая ячмень
-по пу 60/588
-отделение 11 60/190
+по пу площадь за день 60 площадь с начала операции 588
+отделение 11 площадь за день 60 площадь с начала операции 190
 второе дискование под сахарная свекла
-по пу 130/1393
-отделение 17 130/130
+по пу площадь за день 130 площадь с начала операции 1393
+отделение 17 площадь за день 130 площадь с начала операции 130
 дискование кукурузный силос
-по пу 207/857
-отделение 11 66/199
-отделение 12 141/289 
-дискование озимая пшеницы 
-по пу 57/8743
-отделение 17 57/1999
+по пу площадь за день 207 площадь с начала операции 857
+отделение 11 площадь за день 66 площадь с начала операции 199
+отделение 12 площадь за день 141 площадь с начала операции 289
+дискование озимая пшеницы
+по пу площадь за день 57 площадь с начала операции 8743
+отделение 17 площадь за день 57 площадь с начала операции 1999
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 2/24
+отделение 12 площадь за день 2 площадь с начала операции 24
 прикат под озимая ячмень
-по пу 60/458
-отделение 11 60/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+по пу площадь за день 60 площадь с начала операции 458
+отделение 11 площадь за день 60 площадь с начала операции 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>ПУ «ЮГ» 2.03
 Выравнивание зяби под сах св
@@ -2864,39 +2903,39 @@
 Отд 16-100/2194</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>пу «юг» 2.03
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>пу юг 2 03
 выравнивание зяби под сахарная свекла
-по пу 105/2527
-отделение 11 30/674
-отделение 17 75/588
-выравнивание зяби под кукурузное зерно 
-по пу 40/571
-отделение 12 40/412
+по пу площадь за день 105 площадь с начала операции 2527
+отделение 11 площадь за день 30 площадь с начала операции 674
+отделение 17 площадь за день 75 площадь с начала операции 588
+выравнивание зяби под кукурузное зерно
+по пу площадь за день 40 площадь с начала операции 571
+отделение 12 площадь за день 40 площадь с начала операции 412
 выравнивание зяби по кукурузный силос
-по пу 62/232
-отделение 11 23/23
-отделение 17 39/39
-выравнивание зяби под сою 
-по пу 72/354
-отделение 16 72/289
-посев овса 
-по пу 5/5
-отделение 11 5/5
-прокатывание посевов овса 
-по пу 5/5
-отделение 5/5
-1-я затравка мыш грызунов по озимым кол. пу"юг" -100/8804, ,12 человек
-отделение 16-100/2194</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+по пу площадь за день 62 площадь с начала операции 232
+отделение 11 площадь за день 23 площадь с начала операции 23
+отделение 17 площадь за день 39 площадь с начала операции 39
+выравнивание зяби под сою
+по пу площадь за день 72 площадь с начала операции 354
+отделение 16 площадь за день 72 площадь с начала операции 289
+посев овса
+по пу площадь за день 5 площадь с начала операции 5
+отделение 11 площадь за день 5 площадь с начала операции 5
+прокатывание посевов овса
+по пу площадь за день 5 площадь с начала операции 5
+отделение площадь за день 5 площадь с начала операции 5
+1 я затравка мыш грызунов по озимым кол пу юг площадь за день 100 площадь с начала операции 8804 12 человек
+отделение 16 площадь за день 100 площадь с начала операции 2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Восход
 Сев кук-121/228га
@@ -2909,25 +2948,25 @@
 175/464га, 89%</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>восход
-посев кук-121/228га
- 22%
-вторая подкормка озимая пш-2200га, 100%
-срадство защиты растений озимая пш-182/454га, 21%
-срадство защиты растений озимая яч-97/168га
-53%
+посев кук площадь за день 121 площадь с начала операции 228га
+22
+вторая подкормка озимая пш 2200га 100
+срадство защиты растений озимая пш площадь за день 182 площадь с начала операции 454га 21
+срадство защиты растений озимая яч площадь за день 97 площадь с начала операции 168га
+53
 довсходовое боронование подсолнечника
-175/464га, 89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+площадь за день 175 площадь с начала операции 464га 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Вырав под сою
 ПоПу 24/1481
@@ -2944,29 +2983,29 @@
 Отд 17 142/678</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>вырав под сою
-попу 24/1481
-отделение 11 24/712
+попу площадь за день 24 площадь с начала операции 1481
+отделение 11 площадь за день 24 площадь с начала операции 712
 предпосевная культура под сахарная свекла
-попу 369/2656
-отделение 11 156/639
-отделение 12 48/795
-отделение 17 163/751
+попу площадь за день 369 площадь с начала операции 2656
+отделение 11 площадь за день 156 площадь с начала операции 639
+отделение 12 площадь за день 48 площадь с начала операции 795
+отделение 17 площадь за день 163 площадь с начала операции 751
 посев сахарная свекла
-попу 355/2287
-отделение 11 80/481
-отделение 12 133/659
-отделение 17 142/678</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+попу площадь за день 355 площадь с начала операции 2287
+отделение 11 площадь за день 80 площадь с начала операции 481
+отделение 12 площадь за день 133 площадь с начала операции 659
+отделение 17 площадь за день 142 площадь с начала операции 678</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>22.03 Внесение гербицидов по оз.рапсу ПУ"Юг"- 320/474
 Отд 11-95/174
@@ -2974,39 +3013,39 @@
 Отд 16-75/150</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>22.03 внесение гербицидов по оз.рапсу пу"юг"- 320/474
-отделение 11-95/174
-отделение 12-150/150
-отделение 16-75/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>22 03 внесение гербицидов по оз рапсу пу юг площадь за день 320 площадь с начала операции 474
+отделение 11 площадь за день 95 площадь с начала операции 174
+отделение 12 площадь за день 150 площадь с начала операции 150
+отделение 16 площадь за день 75 площадь с начала операции 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Подкормка Кас-32 по оз.пшенице ПУ"Юг"- 400/562
 Отд 12-241/241
 Отд 16-159/321</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- 400/562
-отделение 12-241/241
-отделение 16-159/321</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>подкормка кас 32 по оз пшенице пу юг площадь за день 400 площадь с начала операции 562
+отделение 12 площадь за день 241 площадь с начала операции 241
+отделение 16 площадь за день 159 площадь с начала операции 321</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Выравн под сою
 По Пу 16/1497
@@ -3021,36 +3060,19 @@
 Отд 17 25/703</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>выравн под сою
-по пу 16/1497
-отделение 11 16/728
+по пу площадь за день 16 площадь с начала операции 1497
+отделение 11 площадь за день 16 площадь с начала операции 728
 предпосевная культура под сахарная свекла
-попу 50/2706
-отделение 11 50/689
+попу площадь за день 50 площадь с начала операции 2706
+отделение 11 площадь за день 50 площадь с начала операции 689
 посев сахарная свекла
-попу 91/2378
-отделение 11 21/502
-отделение 12 45/704
-отделение 17 25/703</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>23.03 Внесение гербицидов по оз.рапсу ПУ"Юг"- 71/545
-Отд 11-71/245</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>23.03 внесение гербицидов по оз.рапсу пу"юг"- 71/545
-отделение 11-71/245</t>
+попу площадь за день 91 площадь с начала операции 2378
+отделение 11 площадь за день 21 площадь с начала операции 502
+отделение 12 площадь за день 45 площадь с начала операции 704
+отделение 17 площадь за день 25 площадь с начала операции 703</t>
         </is>
       </c>
     </row>
@@ -3059,6 +3081,23 @@
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
+        <is>
+          <t>23.03 Внесение гербицидов по оз.рапсу ПУ"Юг"- 71/545
+Отд 11-71/245</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>23 03 внесение гербицидов по оз рапсу пу юг площадь за день 71 площадь с начала операции 545
+отделение 11 площадь за день 71 площадь с начала операции 245</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Выравн зяби под сою
 ПоПу 18/1515
@@ -3076,30 +3115,30 @@
 Отд 16 90/90</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>выравн зяби под сою
-попу 18/1515
-отделение 11 18/746
+попу площадь за день 18 площадь с начала операции 1515
+отделение 11 площадь за день 18 площадь с начала операции 746
 предпосевная культура под сахарная свекла
-попу 175//2881
-отделение 11 45/734
-отделение 17 130/881
+попу 175 2881
+отделение 11 площадь за день 45 площадь с начала операции 734
+отделение 17 площадь за день 130 площадь с начала операции 881
 посев сахарная свекла
-попу 333/2711
-отделение 11 113/615
-отделение 12 91/795
-отделение 17 129/832
+попу площадь за день 333 площадь с начала операции 2711
+отделение 11 площадь за день 113 площадь с начала операции 615
+отделение 12 площадь за день 91 площадь с начала операции 795
+отделение 17 площадь за день 129 площадь с начала операции 832
 предпосевная культура под подсо
-отделение 16 90/90</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+отделение 16 площадь за день 90 площадь с начала операции 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>24.03 Внесение гербицидов по оз.рапсу ПУ"Юг"- 445/990
 Отд 11-138/383
@@ -3108,21 +3147,21 @@
 Отд 17-100/100</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>24.03 внесение гербицидов по оз.рапсу пу"юг"- 445/990
-отделение 11-138/383
-отделение 12-110/260
-отделение 16-97/247
-отделение 17-100/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>24 03 внесение гербицидов по оз рапсу пу юг площадь за день 445 площадь с начала операции 990
+отделение 11 площадь за день 138 площадь с начала операции 383
+отделение 12 площадь за день 110 площадь с начала операции 260
+отделение 16 площадь за день 97 площадь с начала операции 247
+отделение 17 площадь за день 100 площадь с начала операции 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Уборка свеклы 27.10.день
 Отд10-45/216
@@ -3139,29 +3178,29 @@
 Дигестия-14,50/15,05</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>уборка свеклы 27.10.день
-отд10-45/216
-по пу 45/1569
-валовый 1259680/6660630
-урожайность 279,9/308,3
-по пу 1259680/41630600
-на завод 1811630/6430580
-по пу 1811630/41400550
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>уборка свеклы 27 10 день
+отд10 площадь за день 45 площадь с начала операции 216
+по пу площадь за день 45 площадь с начала операции 1569
+валовый площадь за день 1259680 площадь с начала операции 6660630
+урожайность 279 площадь за день 9 площадь с начала операции 308 3
+по пу площадь за день 1259680 площадь с начала операции 41630600
+на завод площадь за день 1811630 площадь с начала операции 6430580
+по пу площадь за день 1811630 площадь с начала операции 41400550
 положено в кагат 399400
 вввезено с кагата 951340
 остаток 230060
-оз-9,04/12,58
-дигестия-14,50/15,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+оз 9 площадь за день 04 площадь с начала операции 12 58
+дигестия 14 площадь за день 50 площадь с начала операции 15 05</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Пахота под сах св
 По Пу 77/518
@@ -3193,44 +3232,44 @@
 Урож 9</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу 77/518
-отделение 12 46/298
-отделение 16 21/143
-отделение 17 10/17
-чизлование под озимая ячмень 
-по пу 22/640
-отделение 11 22/242
+по пу площадь за день 77 площадь с начала операции 518
+отделение 12 площадь за день 46 площадь с начала операции 298
+отделение 16 площадь за день 21 площадь с начала операции 143
+отделение 17 площадь за день 10 площадь с начала операции 17
+чизлование под озимая ячмень
+по пу площадь за день 22 площадь с начала операции 640
+отделение 11 площадь за день 22 площадь с начала операции 242
 чизлование под озимая зел корм
-отделение 11 40/40
+отделение 11 площадь за день 40 площадь с начала операции 40
 дискование озимая пшеницы
-по пу 28/8872
-отделение 17 28/2097
+по пу площадь за день 28 площадь с начала операции 8872
+отделение 17 площадь за день 28 площадь с начала операции 2097
 второе дискование под сахарная свекла
-по пу 189/1763
-отделение 11 60/209
-отделение 12 122/540
-отделение 17 7/172
+по пу площадь за день 189 площадь с начала операции 1763
+отделение 11 площадь за день 60 площадь с начала операции 209
+отделение 12 площадь за день 122 площадь с начала операции 540
+отделение 17 площадь за день 7 площадь с начала операции 172
 дискование кукурузный силос
-по пу 6/904
-отделение 11 6/229
+по пу площадь за день 6 площадь с начала операции 904
+отделение 11 площадь за день 6 площадь с начала операции 229
 прик под озимая ячмень
-по пу 40/498
-отделение 11 40/100
-уборка сои (семенной)
-отделение 11 65/65
+по пу площадь за день 40 площадь с начала операции 498
+отделение 11 площадь за день 40 площадь с начала операции 100
+уборка сои семенной
+отделение 11 площадь за день 65 площадь с начала операции 65
 валовый 58720
 урожайность 9</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Пахота под сах св
 По Пу 88/329
@@ -3263,45 +3302,45 @@
 Оз - 5,33</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу 88/329
-отделение 11 23/60
-отделение 12 34/204
-отделение 16 31/65
+по пу площадь за день 88 площадь с начала операции 329
+отделение 11 площадь за день 23 площадь с начала операции 60
+отделение 12 площадь за день 34 площадь с начала операции 204
+отделение 16 площадь за день 31 площадь с начала операции 65
 пахота под многолетние травы
-по пу 10/438
-отделение 17 10/80
+по пу площадь за день 10 площадь с начала операции 438
+отделение 17 площадь за день 10 площадь с начала операции 80
 чизлование под озимая ячмень
-по пу 71/528
-отделение 11 71/130
+по пу площадь за день 71 площадь с начала операции 528
+отделение 11 площадь за день 71 площадь с начала операции 130
 второе дискование под сахарная свекла
-по пу 80/1263
-отделение 12 80/314
+по пу площадь за день 80 площадь с начала операции 1263
+отделение 12 площадь за день 80 площадь с начала операции 314
 второе дискование под озимая ячмень
-по пу 97/819
-отделение 17 97/179
+по пу площадь за день 97 площадь с начала операции 819
+отделение 17 площадь за день 97 площадь с начала операции 179
 дискование кукурузный силос
-по пу 43/650
-отделение 11 33/133
-отделение 12 10/148
+по пу площадь за день 43 площадь с начала операции 650
+отделение 11 площадь за день 33 площадь с начала операции 133
+отделение 12 площадь за день 10 площадь с начала операции 148
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 10/22
+отделение 12 площадь за день 10 площадь с начала операции 22
 уборка сахарная свекла
-отделение 12 16/16
+отделение 12 площадь за день 16 площадь с начала операции 16
 валовый 473920
-урожайность 296,2
-диг - 19,19
-озимая - 5,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+урожайность 296 2
+диг 19 19
+озимая 5 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Восход
 Посев кук-24/252га
@@ -3316,27 +3355,27 @@
 га, 100%.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>восход
-посев кук-24/252га
-24%
+посев кук площадь за день 24 площадь с начала операции 252га
+24
 предпосевная культура
-под кук-94/490га46%
-сзроз пш-103/557га
-25%
-подкормка озимая рапс-
-152га , 100%, подкормка овса-97га, 50%
-довсходовое боронование подсолнечника-524
-га, 100%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+под кук площадь за день 94 площадь с начала операции 490га46
+сзроз пш площадь за день 103 площадь с начала операции 557га
+25
+подкормка озимая рапс
+152га 100 подкормка овса 97га 50
+довсходовое боронование подсолнечника 524
+га 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>ТСК
 Выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) Остаток 5332 га
@@ -3344,20 +3383,20 @@
 Осадки 1мм</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>тск
-выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) остаток 5332 га
-выравнивание зяби под кукурузу 131га (3%) остаток 4486 га
+выравнивание зяби под сою 25 га с нарастающим 765 га 13 остаток 5332 га
+выравнивание зяби под кукурузу 131га 3 остаток 4486 га
 осадки 1мм</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>20.11 Мир
 Пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
@@ -3367,22 +3406,22 @@
 Бригада 1 Воронежская - 6 мм</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>20.11 мир
-пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
-работало 4 агрегата.
-выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. работал 1 агрегат
-осадки:
-бригада 1 воронежская - 6 мм</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>20 11 мир
+пахота зяби под сою 100 га день 1109 га от начала 97 30 га остаток
+работало 4 агрегата
+выравнивание зяби под подсолнечник 47 га день 141 га от начала 29 остаток 565 га работал 1 агрегат
+осадки
+бригада 1 воронежская 6 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>АО Кропоткинское
 26.03.25
@@ -3393,23 +3432,23 @@
 Выравнивание зяби под кукурузу - 295/2348</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>ао кропоткинское
-26.03.25
-2 подкормка озимой пшеницы - 862/5519
-предпосевная культивация под сах.свеклу - 274/896
-посев сах.свеклы - 276/666 (31%) 7ед.
+26 03 25
+2 подкормка озимой пшеницы площадь за день 862 площадь с начала операции 5519
+предпосевная культивация под сах свеклу площадь за день 274 площадь с начала операции 896
+посев сах свеклы площадь за день 276 площадь с начала операции 666 31 7ед
 осталось 1475га
-выравнивание зяби под кукурузу - 295/2348</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
+выравнивание зяби под кукурузу площадь за день 295 площадь с начала операции 2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Восход
 Посев подсолнечника
@@ -3422,25 +3461,25 @@
 Всего-1430га, 76,2%.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>восход
 посев подсолнечника
-день-149га
-всего-351га,67%
+день 149га
+всего 351га 67
 химпрополка рапса
-152га, 100%
+152га 100
 первая культивация
-зябис день-180га
-всего-1430га, 76,2%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
+зябис день 180га
+всего 1430га 76 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Восход
 Сев подсолнечника
@@ -3451,23 +3490,23 @@
 Всего-1626га, 86%.</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>восход
 посев подсолнечника
-день-145га, всего-496га,95%
+день 145га всего 496га 95
 вторая подкормка озимая
-пш-218га, 10%.
-1-я культивация зяби день-196га,
-всего-1626га, 86%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+пш 218га 10
+1 я культивация зяби день 196га
+всего 1626га 86</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>27.03.25 Мир.
 Выравнивание зяби под сою 53/1153/20 - 98%
@@ -3478,23 +3517,23 @@
 На севе работало 5 ед</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>27.03.25 мир.
-выравнивание зяби под сою 53/1153/20 - 98%
-сплошная культивация под сою 50/140/447 - 24%
-предпосевная культивация под сахарную свеклу 85/702/246 - 74%
-посев сахарной свеклы 135/655/293 - 69%
-вторая подкормка озимой пшеницы 1047/2205/3079 - 42%
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>27 03 25 мир
+выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153 20 98
+сплошная культивация под сою площадь за день 50 площадь с начала операции 140 447 24
+предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702 246 74
+посев сахарной свеклы площадь за день 135 площадь с начала операции 655 293 69
+вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205 3079 42
 на севе работало 5 ед</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>27.03.25г.
 СП Коломейцево
@@ -3516,34 +3555,34 @@
   от начала 145га (71%)</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>27.03.25г.
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>27 03 25г
 сп коломейцево
-предпосевная культивация  
- -под сахарную свеклу: 
-   день 19га
-  от начала 314га(100%)
-  -под подсолнечник
-    день 20га
-    от начала 20га(10%)
-посев сахарной свеклы: 
+предпосевная культивация
+под сахарную свеклу
+день 19га
+от начала 314га 100
+под подсолнечник
+день 20га
+от начала 20га 10
+посев сахарной свеклы
 день 30га
-от начала 265га(84%)
- внесение минеральных удобрений по озимой пшенице,2 след: 
+от начала 265га 84
+внесение минеральных удобрений по озимой пшенице 2 след
 день 139га
-от начала 1015га(100%)
-сплошная культивация под сою:
-  день 51га 
-  от начала 145га (71%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+от начала 1015га 100
+сплошная культивация под сою
+день 51га
+от начала 145га 71</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>АО Кропоткинское
 27.03.25
@@ -3554,23 +3593,23 @@
 Выравнивание зяби под кукурузу - 295/2643</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>ао кропоткинское
-27.03.25
-2 подкормка озимой пшеницы - 834/6353
-предпосевная культивация под сах.свеклу - 306/1202
-посев сах.свеклы - 278/944 (44%) 7ед.
+27 03 25
+2 подкормка озимой пшеницы площадь за день 834 площадь с начала операции 6353
+предпосевная культивация под сах свеклу площадь за день 306 площадь с начала операции 1202
+посев сах свеклы площадь за день 278 площадь с начала операции 944 44 7ед
 осталось 1197га
-выравнивание зяби под кукурузу - 295/2643</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+выравнивание зяби под кукурузу площадь за день 295 площадь с начала операции 2643</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Рассвет
 Сев сах. Свеклы 1139/8218/73%
@@ -3578,20 +3617,20 @@
 2-подкормка оз. Пшеницы1898/30547/95%</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы 1139/8218/73%
-культура. сахарная свёкла 1225/9228/82%
-2-подкормка озимая пшеницы1898/30547/95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218 73
+культура сахарная свёкла площадь за день 1225 площадь с начала операции 9228 82
+2 подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Восход
 Посев подсолнечника
@@ -3599,27 +3638,12 @@
 Всего-524га, 100%</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>восход
 посев подсолнечника
-день-28
-всего-524га, 100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Колхоз Прогресс: Химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>колхоз прогресс: химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
+день 28
+всего 524га 100</t>
         </is>
       </c>
     </row>
@@ -3628,6 +3652,21 @@
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
+        <is>
+          <t>Колхоз Прогресс: Химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>колхоз прогресс химпрополка оз пшеницы за день 185 га всего 185 га 13 остаток 1212 га</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>28.03.25 Мир.
 Предпосевная культивация под сахарную свеклу 178/880/68
@@ -3636,21 +3675,21 @@
 На севе работало 5 ед.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>28.03.25 мир.
-предпосевная культивация под сахарную свеклу 178/880/68
-посев сахарной свеклы 150/805/143
-вторая подкормка озимой пшеницы 995/3200/2084
-на севе работало 5 ед.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>28 03 25 мир
+предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880 68
+посев сахарной свеклы площадь за день 150 площадь с начала операции 805 143
+вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200 2084
+на севе работало 5 ед</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>28.03.25г.
 СП Коломейцево
@@ -3669,31 +3708,31 @@
   от начала 200га (80%)</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>28.03.25г.
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>28 03 25г
 сп коломейцево
-предпосевная культивация  
-  -под подсолнечник
-    день 40га
-    от начала 60га(29%)
-посев сахарной свеклы: 
+предпосевная культивация
+под подсолнечник
+день 40га
+от начала 60га 29
+посев сахарной свеклы
 день 30га
-от начала 295га(94%)
-посев подсолнечника 
-  день 25га
-  от начала 25га(12%)
-сплошная культивация под сою:
-  день 55га 
-  от начала 200га (80%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+от начала 295га 94
+посев подсолнечника
+день 25га
+от начала 25га 12
+сплошная культивация под сою
+день 55га
+от начала 200га 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>АО Кропоткинское
 28.03.25
@@ -3704,23 +3743,23 @@
 Выравнивание зяби под кукурузу - 161/2804</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>ао кропоткинское
-28.03.25
-2 подкормка озимой пшеницы - 622/6975
-предпосевная культивация под сах.свеклу - 426/1628
-посев сах.свеклы - 285/1229 (57%) 7ед.
+28 03 25
+2 подкормка озимой пшеницы площадь за день 622 площадь с начала операции 6975
+предпосевная культивация под сах свеклу площадь за день 426 площадь с начала операции 1628
+посев сах свеклы площадь за день 285 площадь с начала операции 1229 57 7ед
 осталось 912га
-выравнивание зяби под кукурузу - 161/2804</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+выравнивание зяби под кукурузу площадь за день 161 площадь с начала операции 2804</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Рассвет
 Сев сах. Свеклы 1200/9359/83%
@@ -3730,22 +3769,22 @@
 Герб. Почвен. Сах. Свёкла 100/100га</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы 1200/9359/83%
-культура. сахарная свёкла 1014/10241/91%
-2-подкормка озимая пшеницы1753/31924/99%
-герб. обработка озимая пшеницы 643/643/2%
-герб. почвен. сахарная свёкла 100/100га</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359 83
+культура сахарная свёкла площадь за день 1014 площадь с начала операции 10241 91
+2 подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924 99
+герб обработка озимая пшеницы площадь за день 643 площадь с начала операции 643 2
+герб почвен сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Восход
 Предпосевная культивация под
@@ -3760,27 +3799,27 @@
 Боронование подсолн-105га, 20%</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>восход
 предпосевная культивация под
-кук-219га, 21%
-посев кук-21га, 2%
-вторая подкормка озимая пшеница день-474га, всего-692,31,5%
-1-я срадство защиты растений по озимая пшеница
-136га, 6%
-предпосевное внесение  под
-посев кукурузный ам селитра-114га
-,86%. до всходовое
-боронование подсолн-105га, 20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+кук 219га 21
+посев кук 21га 2
+вторая подкормка озимая пшеница день 474га всего 692 31 5
+1 я срадство защиты растений по озимая пшеница
+136га 6
+предпосевное внесение под
+посев кукурузный ам селитра 114га
+86 до всходовое
+боронование подсолн 105га 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>АО Кропоткинское
 29.03.25
@@ -3790,22 +3829,22 @@
 Осталось 576га</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>ао кропоткинское
-29.03.25
-2 подкормка озимой пшеницы - 279/7254
-предпосевная культивация под сах.свеклу - 241/1869
-посев сах.свеклы - 336/1565 (73%) 7ед.
+29 03 25
+2 подкормка озимой пшеницы площадь за день 279 площадь с начала операции 7254
+предпосевная культивация под сах свеклу площадь за день 241 площадь с начала операции 1869
+посев сах свеклы площадь за день 336 площадь с начала операции 1565 73 7ед
 осталось 576га</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Полевые работы АОР, 13.11.2024.
 Пахота под кукурузу на зерно:
@@ -3842,49 +3881,49 @@
 Сев озимых зерновых по АОР завершен.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>полевые работы аор, 13.11.2024.
-пахота под кукурузу на зерно:
-день - 86 га 
-от начала- 3905 га (95%)
-остаток - 192 га
-пахота под сою:
-день - 260 га 
-от начала - 6509 га (75%)
-остаток- 2169 га 
-пахота под кукурузу на силос:
-день - 156 га 
-от начала - 1657 га(54%)
-остаток - 1429 га 
-чизелевание под сою:
-день -54 га 
-от начала - 768 га
-остаток от плана - 38 га 
-выравнивание зяби под сахарную свеклу:
-день - 312 га 
-от начала-7498 га (67%)
-остаток - 3752 га
-2 след выравнивания зяби под сах.свеклу:
-день- 101 га 
-от начала- 425 га (4%)
-остаток - 10825 га 
-затравка мышевидных грызунов по мн.травам:
-день - 88 га 
-от начала -965 га (55%)
-остаток - 524 га
-посев озимой пшеницы (товарной):
-день - 85 га 
-от начала - 28416 га (100%)
-посев озимых зерновых по аор завершен.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>полевые работы аор 13 11 2024
+пахота под кукурузу на зерно
+день 86 га
+от начала 3905 га 95
+остаток 192 га
+пахота под сою
+день 260 га
+от начала 6509 га 75
+остаток 2169 га
+пахота под кукурузу на силос
+день 156 га
+от начала 1657 га 54
+остаток 1429 га
+чизелевание под сою
+день 54 га
+от начала 768 га
+остаток от плана 38 га
+выравнивание зяби под сахарную свеклу
+день 312 га
+от начала 7498 га 67
+остаток 3752 га
+2 след выравнивания зяби под сах свеклу
+день 101 га
+от начала 425 га 4
+остаток 10825 га
+затравка мышевидных грызунов по мн травам
+день 88 га
+от начала 965 га 55
+остаток 524 га
+посев озимой пшеницы товарной
+день 85 га
+от начала 28416 га 100
+посев озимых зерновых по аор завершен</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>14.11 Мир
 Пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
@@ -3894,22 +3933,22 @@
 Работал 1 агрегат.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>14.11 мир
-пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
-пахота зяби под сою 60 га день, 799 га от начала, 70%, 340 га остаток.
-работало 5 агрегатов.
-выравнивание зяби под сахарную свёклу 130 га день, 874 га от начала, 92 %, 78 га остаток.
-работал 1 агрегат.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>14 11 мир
+пахота зяби под кукурузу 57 га день 562 га от начала 83 110 га остаток
+пахота зяби под сою 60 га день 799 га от начала 70 340 га остаток
+работало 5 агрегатов
+выравнивание зяби под сахарную свёклу 130 га день 874 га от начала 92 78 га остаток
+работал 1 агрегат</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>14.11.24.
 СП Коломейцево 
@@ -3924,27 +3963,27 @@
 от начала 14га</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>14.11.24.
-сп коломейцево 
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>14 11 24
+сп коломейцево
 пахота под сахарная свекла
 день 29га
-от начала 315га(100%)
-выравнивание под сахарную свёклу 
+от начала 315га 100
+выравнивание под сахарную свёклу
 день 20га
-от начала 125га(39%)
+от начала 125га 39
 выравнивание под подсолнечник
 день 14га
 от начала 14га</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>ТСК
 Вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
@@ -3952,20 +3991,20 @@
 Осадки 2 мм</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>тск
-вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
-выравнивание зяби под сою 155 га/ с нарастающим 334 га (5%) остаток 5763 га
+вспашка под кукурузу 70 га с нарастающим 1377 га 100
+выравнивание зяби под сою 155 га с нарастающим 334 га 5 остаток 5763 га
 осадки 2 мм</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Полевые работы АОР, 14.11.2024.
 Пахота под кукурузу на зерно:
@@ -4005,44 +4044,44 @@
 Остаток - 2086 га</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>полевые работы аор, 14.11.2024.
-пахота под кукурузу на зерно:
-день - 26 га 
-от начала - 3931 га (96%)
-остаток - 166 га 
-пахота под сою:
-день - 295 га 
-от начала - 6804 га (79%)
-остаток- 1774 га 
-пахота под кукурузу на силос:
-день - 128 га 
-от начала - 1881 га(61%)
-остаток - 1205 га 
-чизелевание под сою:
-день -73 га 
-от начала - 841 га
-выравнивание зяби под сахарную свеклу:
-день - 384 га 
-от начала-7882 га (70%)
-остаток - 3368 га
-выравнивание зяби под подсолнечник:
-день - 50 га 
-от начала - 1260 га (30%)
-остаток - 2923 га 
-2 след выравнивания зяби под сах.свеклу:
-день- 44 га 
-от начала- 469 га (4%)
-остаток - 10781 га 
-затравка мышевидных грызунов по мн.травам:
-день - 53 га 
-от начала -1018 га (58%)
-остаток - 471 га
-затравка мышевидных грызунов по озимому ячменю:
-день - 186 га 
-от начала- 186 га 
-остаток - 2086 га</t>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>полевые работы аор 14 11 2024
+пахота под кукурузу на зерно
+день 26 га
+от начала 3931 га 96
+остаток 166 га
+пахота под сою
+день 295 га
+от начала 6804 га 79
+остаток 1774 га
+пахота под кукурузу на силос
+день 128 га
+от начала 1881 га 61
+остаток 1205 га
+чизелевание под сою
+день 73 га
+от начала 841 га
+выравнивание зяби под сахарную свеклу
+день 384 га
+от начала 7882 га 70
+остаток 3368 га
+выравнивание зяби под подсолнечник
+день 50 га
+от начала 1260 га 30
+остаток 2923 га
+2 след выравнивания зяби под сах свеклу
+день 44 га
+от начала 469 га 4
+остаток 10781 га
+затравка мышевидных грызунов по мн травам
+день 53 га
+от начала 1018 га 58
+остаток 471 га
+затравка мышевидных грызунов по озимому ячменю
+день 186 га
+от начала 186 га
+остаток 2086 га</t>
         </is>
       </c>
     </row>

--- a/server/data/postprocdata.xlsx
+++ b/server/data/postprocdata.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Похота зяби под мн тр
+          <t>Пахота зяби под мн тр
 По Пу 26/488
 Отд 12 26/221
 Предп культ под оз пш
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>похота зяби под многолетние травы
+          <t>пахота зяби под многолетние травы
 по пу площадь за день 26 площадь с начала операции 488
 отделение 12 площадь за день 26 площадь с начала операции 221
 предпосевная культура под озимая пшеница
@@ -583,9 +583,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12 10
+          <t>12.10
 внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 149 площадь с начала операции 7264
-отделение 17 площадь за день 149 площадь с начала операции 1443</t>
+отделение 17-площадь за день 149 площадь с начала операции 1443</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
 второе дискование сахарная свекла под пшеница
 по пу площадь за день 149 площадь с начала операции 899
 отделение 17 площадь за день 149 площадь с начала операции 232
-3 е дискование подсол под пшеница
+3-е дискование подсол под пшеница
 по пу площадь за день 47 площадь с начала операции 949
 отделение 11 площадь за день 47 площадь с начала операции 47
 предпосевная культура под озимая пшеница
@@ -684,9 +684,9 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15 10
+          <t>15.10
 внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 117 площадь с начала операции 7381
-отделение 17 площадь за день 117 площадь с начала операции 1560</t>
+отделение 17-площадь за день 117 площадь с начала операции 1560</t>
         </is>
       </c>
     </row>
@@ -703,9 +703,9 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15 10
+          <t>15.10
 внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 88 площадь с начала операции 384
-отделение 12 площадь за день 88 площадь с начала операции 325</t>
+отделение 12- площадь за день 88 площадь с начала операции 325</t>
         </is>
       </c>
     </row>
@@ -798,9 +798,9 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 10
+          <t>16.10
 внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 60 площадь с начала операции 444
-отделение 11 площадь за день 60 площадь с начала операции 119</t>
+отделение 11-площадь за день 60 площадь с начала операции 119</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
+          <t>пахота зяби под сою 
 по пу площадь за день 7 площадь с начала операции 1402
 отделение 17 площадь за день 7 площадь с начала операции 141
 выравнивание зяби под кукурузный силос
@@ -835,7 +835,7 @@
 выравнивание зяби под сахарная свекла
 по пу площадь за день 67 площадь с начала операции 912
 отделение 12 площадь за день 67 площадь с начала операции 376
-2 ое дискование сахарная свекла
+2-ое дискование сахарная свекла 
 по пу площадь за день 59 площадь с начала операции 1041
 отделение 17 площадь за день 59 площадь с начала операции 349</t>
         </is>
@@ -937,12 +937,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15 11 мир
-пахота зяби под кукурузу 7 га день 569 га от начала 84 103 га остаток
-пахота зяби под сою 50 га день 849 га от начала 75 290 га остаток
-работало 4 агрегата
-выравнивание зяби под сахарную свёклу 43 га день 917 га от начала 96 35 га остаток
-работал 1 агрегат</t>
+          <t>15.11 мир
+пахота зяби под кукурузу 7 га день, 569 га от начала, 84%, 103 га остаток.
+пахота зяби под сою 50 га день, 849 га от начала, 75%, 290 га остаток.
+работало 4 агрегата.
+выравнивание зяби под сахарную свёклу 43 га день, 917 га от начала, 96 %, 35 га остаток.
+работал 1 агрегат.</t>
         </is>
       </c>
     </row>
@@ -959,8 +959,8 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>тск
-выравнивание зяби под сою 199 га с нарастающим 533 га 8 остаток 5564 га
+          <t>тск 
+выравнивание зяби под сою 199 га/ с нарастающим 533 га (8%) остаток 5564 га
 осадки 2 мм</t>
         </is>
       </c>
@@ -1019,9 +1019,9 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23 10
+          <t>23.10
 внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 216 площадь с начала операции 7698
-отделение 17 площадь за день 216 площадь с начала операции 1877</t>
+отделение 17-площадь за день 216 площадь с начала операции 1877</t>
         </is>
       </c>
     </row>
@@ -1038,9 +1038,9 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23 10
+          <t>23.10
 внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 134 площадь с начала операции 578
-отделение 11 площадь за день 134 площадь с начала операции 253</t>
+отделение 11-площадь за день 134 площадь с начала операции 253</t>
         </is>
       </c>
     </row>
@@ -1096,8 +1096,8 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>тск
-выравнивание зяби под сою 187 га с нарастающим 740 га 13 остаток 5357 га
+          <t>тск 
+выравнивание зяби под сою 187 га/ с нарастающим 740 га (13%) остаток 5357 га
 осадки 1 мм</t>
         </is>
       </c>
@@ -1117,11 +1117,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19 11 мир
-пахота зяби под кукурузу 8 га день 672 га от начала 100
-пахота зяби под сою 70 га день 1009 га от начала 89 130 га остаток
-работало 3 агрегата
-выравнивание зяби под подсолнечник 15 га день 15 га от начала 2 остаток 691га работал 1 агрегат</t>
+          <t>19.11 мир
+пахота зяби под кукурузу 8 га день, 672 га от начала, 100%
+пахота зяби под сою 70 га день, 1009 га от начала, 89%, 130 га остаток.
+работало 3 агрегата.
+выравнивание зяби под подсолнечник 15 га день, 15 га от начала, 2%, остаток 691га. работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -1138,9 +1138,9 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24 10
+          <t>24.10
 внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 108 площадь с начала операции 686
-отделение 11 площадь за день 108 площадь с начала операции 361</t>
+отделение 11-площадь за день 108 площадь с начала операции 361</t>
         </is>
       </c>
     </row>
@@ -1157,9 +1157,9 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24 10
+          <t>24.10
 внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 123 площадь с начала операции 7821
-отделение 16 площадь за день 123 площадь с начала операции 1123</t>
+отделение 16-площадь за день 123 площадь с начала операции 1123</t>
         </is>
       </c>
     </row>
@@ -1177,10 +1177,10 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17 07
+          <t>17.07
 внесение минеральные удобрений под озимая рапс пу юг площадь за день 206 площадь с начала операции 319
-отделение 16 площадь за день 119 площадь с начала операции 119
-отделение 17 площадь за день 87 площадь с начала операции 87</t>
+отделение 16- площадь за день 119 площадь с начала операции 119
+отделение 17-площадь за день 87 площадь с начала операции 87</t>
         </is>
       </c>
     </row>
@@ -1199,11 +1199,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17 07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 83 площадь с начала операции 739
-отделение 17 площадь за день 83 площадь с начала операции 83
+          <t>17.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 83 площадь с начала операции 739
+отделение 17-площадь за день 83 площадь с начала операции 83
 внесение минеральных удобрений под озимая ячмень пу юг площадь за день 80 площадь с начала операции 320
-отделение 12 площадь за день 80 площадь с начала операции 219</t>
+отделение 12-площадь за день 80 площадь с начала операции 219</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1246,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы
+          <t>диск озимая пшеницы 
 по пу площадь за день 20 площадь с начала операции 8497
 отделение 17 площадь за день 20 площадь с начала операции 1793
 второе дискование под сахарная свекла
 по пу площадь за день 112 площадь с начала операции 817
 отделение 16 площадь за день 112 площадь с начала операции 594
-второе дискование под озимая ячмень
+второе дискование под озимая ячмень 
 по пу площадь за день 61 площадь с начала операции 352
 отделение 11 площадь за день 32 площадь с начала операции 32
 отделение 12 площадь за день 29 площадь с начала операции 219
@@ -1268,11 +1268,11 @@
 пахота под сахарная свекла
 отделение 12 площадь за день 22 площадь с начала операции 59
 чизлование под озимая ячмень
-дракула
+(дракула)
 по пу площадь за день 91 площадь с начала операции 222
 отделение 12 площадь за день 91 площадь с начала операции 91
 прикат под озимая ячмень
-по пу площадь за день 49 площадь с начала операции 141
+по пу площадь за день 49 площадь с начала операции 141 
 отделение 12 площадь за день 40 площадь с начала операции 40
 отделение 16 площадь за день 9 площадь с начала операции 101</t>
         </is>
@@ -1291,9 +1291,9 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19 07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 120 площадь с начала операции 857
-отделение 16 площадь за день 120 площадь с начала операции 551</t>
+          <t>19.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 120 площадь с начала операции 857
+отделение 16- площадь за день 120 площадь с начала операции 551</t>
         </is>
       </c>
     </row>
@@ -1310,9 +1310,9 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19 07
+          <t>19.07
 внесение минеральных удобрений под озимая ячмень пу юг площадь за день 242 площадь с начала операции 562
-отделение 11 площадь за день 242 площадь с начала операции 242</t>
+отделение 11-площадь за день 242 площадь с начала операции 242</t>
         </is>
       </c>
     </row>
@@ -1335,15 +1335,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>север
+          <t>север 
 отд7 пахота с свекла площадь за день 41 площадь с начала операции 501
 отд20 площадь за день 20 площадь с начала операции 281 по пу площадь за день 61 площадь с начала операции 793
-отделение 3 пахота подс площадь за день 60 площадь с начала операции 231
+отделение 3 пахота подс.площадь за день 60 площадь с начала операции 231
 по пу 231
-дискование к сил отделение 7 площадь за день 32 площадь с начала операции 352
-пу 484
+дискование к. сил отделение 7. площадь за день 32 площадь с начала операции 352
+пу- 484
 дискование под озимая пшеница езубов площадь за день 20 площадь с начала операции 281
-дискование под с свекла отделение 10 площадь за день 83 площадь с начала операции 203 пу 1065га</t>
+дискование под с. свекла отделение 10 площадь за день 83 площадь с начала операции 203 пу-1065га</t>
         </is>
       </c>
     </row>
@@ -1360,9 +1360,9 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>внесение удобрений под рапс отделение 7 площадь за день 138 площадь с начала операции 270
+          <t>внесение удобрений под рапс отделение 7 -площадь за день 138 площадь с начала операции 270
 дисклвание под рапс площадь за день 40 площадь с начала операции 172
-дискование после кукурузный сил отделение 7 площадь за день 32 площадь с начала операции 352 по пу 484га</t>
+дискование после кукурузный сил отделение 7-площадь за день 32 площадь с начала операции 352 по пу 484га</t>
         </is>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы
+          <t>диск озимая пшеницы 
 по пу площадь за день 35 площадь с начала операции 8532
 отделение 17 площадь за день 35 площадь с начала операции 1828
 второе дискование под сахарная свекла
 по пу площадь за день 97 площадь с начала операции 914
 отделение 16 площадь за день 97 площадь с начала операции 691
-второе дискование под озимая ячмень
+второе дискование под озимая ячмень 
 по пу площадь за день 117 площадь с начала операции 469
 отделение 11 площадь за день 117 площадь с начала операции 149
 второе дискование под рапс
@@ -1425,7 +1425,7 @@
 пахота под сахарная свекла
 отделение 12 площадь за день 22 площадь с начала операции 81
 чизлование под озимая ячмень
-дракула
+(дракула)
 по пу площадь за день 64 площадь с начала операции 286
 отделение 12 площадь за день 64 площадь с начала операции 155</t>
         </is>
@@ -1463,13 +1463,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы
+          <t>диск озимая пшеницы 
 по пу площадь за день 95 площадь с начала операции 8627
 отделение 17 площадь за день 95 площадь с начала операции 1923
 второе дискование под сахарная свекла
 по пу площадь за день 151 площадь с начала операции 1065
 отделение 16 площадь за день 151 площадь с начала операции 842
-второе дискование под озимая ячмень
+второе дискование под озимая ячмень 
 по пу площадь за день 136 площадь с начала операции 605
 отделение 11 площадь за день 70 площадь с начала операции 219
 отделение 11 площадь за день 66 площадь с начала операции 285
@@ -1482,7 +1482,7 @@
 пахота под сахарная свекла
 отделение 12 площадь за день 24 площадь с начала операции 105
 чизлование под озимая ячмень
-дракула
+(дракула)
 по пу площадь за день 64 площадь с начала операции 350
 отделение 12 площадь за день 64 площадь с начала операции 219</t>
         </is>
@@ -1501,9 +1501,9 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21 07
+          <t>21.07
 внесение минеральных удобрений под озимая ячмень пу юг площадь за день 78 площадь с начала операции 640
-отделение 12 площадь за день 78 площадь с начала операции 297</t>
+отделение 12-площадь за день 78 площадь с начала операции 297</t>
         </is>
       </c>
     </row>
@@ -1521,10 +1521,10 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21 07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 220 площадь с начала операции 1077
-отделение 12 площадь за день 118 площадь с начала операции 234
-отделение 16 площадь за день 102 площадь с начала операции 653</t>
+          <t>21.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 220 площадь с начала операции 1077
+отделение 12-площадь за день 118 площадь с начала операции 234
+отделение 16-площадь за день 102 площадь с начала операции 653</t>
         </is>
       </c>
     </row>
@@ -1541,9 +1541,9 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21 07
+          <t>21.07
 внесение минеральные удобрений под озимая рапс пу юг площадь за день 103 площадь с начала операции 422
-отделение 16 площадь за день 103 площадь с начала операции 222</t>
+отделение 16-площадь за день 103 площадь с начала операции 222</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 е дискование под озимая ячмень
+          <t>2-е дискование под озимая ячмень
 по пу площадь за день 35 площадь с начала операции 640
 отделение 11 площадь за день 23 площадь с начала операции 242
 отделение 12 площадь за день 12 площадь с начала операции 297
@@ -1602,7 +1602,7 @@
 по пу площадь за день 13 площадь с начала операции 118
 отделение 11 площадь за день 13 площадь с начала операции 13
 чизлование под озимая ячмень
-дракула
+(дракула)
 по пу площадь за день 39 площадь с начала операции 389
 отделение 12 площадь за день 39 площадь с начала операции 258
 прикат многолетние травы под озимая пшеница
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы
+          <t>диск озимая пшеницы 
 по пу площадь за день 19 площадь с начала операции 8646
 отделение 17 площадь за день 19 площадь с начала операции 1942
 второе дискование под сахарная свекла
@@ -1749,9 +1749,9 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>25 07
+          <t>25.07
 внесение минеральных удобрений под озимая ячмень пу юг площадь за день 69 площадь с начала операции 819
-отделение 17 площадь за день 110 площадь с начала операции 179</t>
+отделение 17-площадь за день 110 площадь с начала операции 179</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
 чизлование под озимая ячмень
 по пу площадь за день 30 площадь с начала операции 457
 отделение 11 площадь за день 30 площадь с начала операции 59
-прикат под озимая ячмень
+прикат под озимая ячмень 
 по пу площадь за день 78 площадь с начала операции 398
 отделение 12 площадь за день 78 площадь с начала операции 297</t>
         </is>
@@ -1837,9 +1837,9 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26 07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 80 площадь с начала операции 1157
-отделение 12 площадь за день 80 площадь с начала операции 314</t>
+          <t>26.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 80 площадь с начала операции 1157
+отделение 12-площадь за день 80 площадь с начала операции 314</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>пу юг 3 03
+          <t>пу «юг» 3.03
 выравнивание зяби под сахарная свекла
 по пу площадь за день 130 площадь с начала операции 2657
 отделение 11 площадь за день 31 площадь с начала операции 705
@@ -1886,13 +1886,13 @@
 по пу площадь за день 167 площадь с начала операции 399
 отделение 11 площадь за день 50 площадь с начала операции 73
 отделение 17 площадь за день 117 площадь с начала операции 156
-выравнивание зяби под сою
+выравнивание зяби под сою 
 по пу площадь за день 45 площадь с начала операции 399
 отделение 16 площадь за день 45 площадь с начала операции 334
-посев овса
+посев овса 
 по пу площадь за день 94 площадь с начала операции 99
 отделение 11 площадь за день 94 площадь с начала операции 99 закончили
-прокатывание посевов овса
+прокатывание посевов овса 
 по пу площадь за день 94 площадь с начала операции 99
 отделение площадь за день 94 площадь с начала операции 99 закончили</t>
         </is>
@@ -1926,10 +1926,10 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>пу юг 4 03
+          <t>пу «юг» 4.03 
 выравнивание зяби под сахарная свекла
 по пу площадь за день 92 площадь с начала операции 2749
-отделение 17 площадь за день 92 площадь с начала операции 779
+отделение 17 площадь за день 92 площадь с начала операции 779 
 выравнивание зяби под подсолнечник
 по пу площадь за день 125 площадь с начала операции 724
 отделение 11 площадь за день 83 площадь с начала операции 133
@@ -1941,7 +1941,7 @@
 выравнивание зяби под кукурузное зерно
 по пу площадь за день 17 площадь с начала операции 588
 отделение 11 площадь за день 17 площадь с начала операции 108
-выравнивание зяби под сою
+выравнивание зяби под сою 
 по пу площадь за день 60 площадь с начала операции 459
 отделение 16 площадь за день 60 площадь с начала операции 394</t>
         </is>
@@ -1975,7 +1975,7 @@
 по пу площадь за день 199 площадь с начала операции 923
 отделение 11 площадь за день 108 площадь с начала операции 241
 отделение 17 площадь за день 91 площадь с начала операции 133
-выравнивание зяби под сах свекла
+выравнивание зяби под сах/ свекла
 по пу площадь за день 78 площадь с начала операции 2827
 отделение 17 площадь за день 78 площадь с начала операции 857
 выравнивание зяби под сою
@@ -2088,14 +2088,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10 03 день
-вторая подкормка озимых пу юг площадь за день 1749 площадь с начала операции 2559
-в т ч амазон площадь за день 1082 площадь с начала операции 1371
-пневмоход площадь за день 667 площадь с начала операции 1188
-отд11 площадь за день 307 площадь с начала операции 307 амазон площадь за день 307 площадь с начала операции 307
-отделение 12 площадь за день 671 площадь с начала операции 671 амазон площадь за день 318 площадь с начала операции 318 пневмоход площадь за день 353 площадь с начала операции 353
-отделение 16 площадь за день 462 площадь с начала операции 1272 амазон площадь за день 148 площадь с начала операции 437 пневмоход площадь за день 314 площадь с начала операции 835
-отделение 17 площадь за день 309 площадь с начала операции 309 амазон площадь за день 309 площадь с начала операции 309</t>
+          <t>10.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 1749 площадь с начала операции 2559
+(в т.ч амазон-площадь за день 1082 площадь с начала операции 1371
+пневмоход-площадь за день 667 площадь с начала операции 1188)
+отд11- площадь за день 307 площадь с начала операции 307 (амазон площадь за день 307 площадь с начала операции 307) 
+отделение 12- площадь за день 671 площадь с начала операции 671( амазон площадь за день 318 площадь с начала операции 318; пневмоход площадь за день 353 площадь с начала операции 353) 
+отделение 16- площадь за день 462 площадь с начала операции 1272( амазон площадь за день 148 площадь с начала операции 437; пневмоход площадь за день 314 площадь с начала операции 835) 
+отделение 17- площадь за день 309 площадь с начала операции 309( амазон площадь за день 309 площадь с начала операции 309)</t>
         </is>
       </c>
     </row>
@@ -2113,10 +2113,10 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16 11 мир
-пахота зяби под кукурузу 30 га день 599 га от начала 89 73 га остаток
-пахота зяби под сою 30 га день 879 га от начала 77 260 га остаток
-работало 2 агрегата</t>
+          <t>16.11 мир
+пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
+пахота зяби под сою 30 га день, 879 га от начала, 77%, 260 га остаток.
+работало 2 агрегата.</t>
         </is>
       </c>
     </row>
@@ -2134,10 +2134,10 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17 11 мир
-пахота зяби под кукурузу 40 га день 639 га от начала 95 33 га остаток
-пахота зяби под сою 20 га день 899 га от начала 79 240 га остаток
-работало 2 агрегата</t>
+          <t>17.11 мир
+пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
+пахота зяби под сою 20 га день, 899 га от начала, 79%, 240 га остаток.
+работало 2 агрегата.</t>
         </is>
       </c>
     </row>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18 11 мир
-пахота зяби под кукурузу 25 га день 664 га от начала 99 8 га остаток
-пахота зяби под сою 40 га день 939 га от начала 83 200 га остаток
-работало 3 агрегата
-выравнивание зяби под сахарную свёклу 45 га день 952 га от начала 100 работал 1 агрегат</t>
+          <t>18.11 мир
+пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
+пахота зяби под сою 40 га день, 939 га от начала, 83%, 200 га остаток.
+работало 3 агрегата.
+выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11 03 ночь
-вторая подкормка озимых пу юг площадь за день 2017 площадь с начала операции 4576
-в т ч амазон площадь за день 1263 площадь с начала операции 2634
-пневмоход площадь за день 754 площадь с начала операции 1942
-отд11 площадь за день 337 площадь с начала операции 644 амазон площадь за день 337 площадь с начала операции 644
-отделение 12 площадь за день 767 площадь с начала операции 1438 амазон площадь за день 284 площадь с начала операции 602 пневмоход площадь за день 483 площадь с начала операции 836
-отделение 16 площадь за день 493 площадь с начала операции 1765 амазон площадь за день 222 площадь с начала операции 659 пневмоход площадь за день 271 площадь с начала операции 1106
-отделение 17 площадь за день 420 площадь с начала операции 729 амазон площадь за день 420 площадь с начала операции 729</t>
+          <t>11.03 ночь
+вторая подкормка озимых, пу "юг" - площадь за день 2017 площадь с начала операции 4576
+(в т.ч амазон-площадь за день 1263 площадь с начала операции 2634
+пневмоход-площадь за день 754 площадь с начала операции 1942)
+отд11- площадь за день 337 площадь с начала операции 644 (амазон площадь за день 337 площадь с начала операции 644) 
+отделение 12- площадь за день 767 площадь с начала операции 1438( амазон площадь за день 284 площадь с начала операции 602; пневмоход площадь за день 483 площадь с начала операции 836) 
+отделение 16- площадь за день 493 площадь с начала операции 1765( амазон площадь за день 222 площадь с начала операции 659; пневмоход площадь за день 271 площадь с начала операции 1106) 
+отделение 17- площадь за день 420 площадь с начала операции 729( амазон площадь за день 420 площадь с начала операции 729)</t>
         </is>
       </c>
     </row>
@@ -2211,14 +2211,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11 03 день
-вторая подкормка озимых пу юг площадь за день 1606 площадь с начала операции 6182
-в т ч амазон площадь за день 1048 площадь с начала операции 3682
-пневмоход площадь за день 558 площадь с начала операции 2500
-отд11 площадь за день 486 площадь с начала операции 1130 амазон площадь за день 356 площадь с начала операции 1000 пневмоход площадь за день 130 площадь с начала операции 130
-отделение 12 площадь за день 778 площадь с начала операции 2216 амазон площадь за день 350 площадь с начала операции 952 пневмоход площадь за день 428 площадь с начала операции 1264
-отделение 16 площадь за день 0 площадь с начала операции 1765 амазон площадь за день 0 площадь с начала операции 659 пневмоход площадь за день 0 площадь с начала операции 1106
-отделение 17 площадь за день 342 площадь с начала операции 1071 амазон площадь за день 342 площадь с начала операции 1071</t>
+          <t>11.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 1606 площадь с начала операции 6182
+(в т.ч амазон-площадь за день 1048 площадь с начала операции 3682
+пневмоход-площадь за день 558 площадь с начала операции 2500)
+отд11- площадь за день 486 площадь с начала операции 1130 (амазон площадь за день 356 площадь с начала операции 1000; пневмоход площадь за день 130 площадь с начала операции 130) 
+отделение 12- площадь за день 778 площадь с начала операции 2216( амазон площадь за день 350 площадь с начала операции 952; пневмоход площадь за день 428 площадь с начала операции 1264) 
+отделение 16- площадь за день 0 площадь с начала операции 1765( амазон площадь за день 0 площадь с начала операции 659; пневмоход площадь за день 0 площадь с начала операции 1106) 
+отделение 17- площадь за день 342 площадь с начала операции 1071( амазон площадь за день 342 площадь с начала операции 1071)</t>
         </is>
       </c>
     </row>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12 03 день
-вторая подкормка озимых пу юг площадь за день 129 площадь с начала операции 6700
-в т ч амазон площадь за день 129 площадь с начала операции 4200
-пневмоход площадь за день 0 площадь с начала операции 2500
-отделение 17 площадь за день 129 площадь с начала операции 1589 амазон площадь за день 129 площадь с начала операции 1589
+          <t>12.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 129 площадь с начала операции 6700
+(в т.ч амазон- площадь за день 129 площадь с начала операции 4200
+пневмоход-площадь за день 0 площадь с начала операции 2500)
+отделение 17- площадь за день 129 площадь с начала операции 1589( амазон площадь за день 129 площадь с начала операции 1589)
 вымочки попу 56 га</t>
         </is>
       </c>
@@ -2374,12 +2374,12 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы площадь за день 886 площадь с начала операции 10224 91
-культура сахарная свёкла площадь за день 551 площадь с начала операции 10793 96
-2 подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100
-герб обработка озимая пшеницы площадь за день 285 площадь с начала операции 928 3
-пред культ подсол площадь за день 32 площадь с начала операции 32
-посев подсол площадь за день 10 площадь с начала операции 10</t>
+посев сахарная свеклы площадь за день 886 площадь с начала операции 10224/91%
+культура. сахарная свёкла площадь за день 551 площадь с начала операции 10793/96%
+2-подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100%
+герб. обработка озимая пшеницы площадь за день 285 площадь с начала операции 928/3%
+пред.культ. подсол.площадь за день 32 площадь с начала операции 32
+посев подсол. площадь за день 10 площадь с начала операции 10</t>
         </is>
       </c>
     </row>
@@ -2502,17 +2502,17 @@
         <is>
           <t>восход
 посев кукурузы
-день площадь за день 86 площадь с начала операции 107га 10
+день-площадь за день 86 площадь с начала операции 107га, 10%
 предпосевная культура
-день площадь за день 177 площадь с начала операции 396га 37
+день-площадь за день 177 площадь с начала операции 396га, 37%
 вторая подкорм озимая пшеница
-день площадь за день 739 площадь с начала операции 1431га65
+день-площадь за день 739 площадь с начала операции 1431га65%
 срадство защиты растений по озимая пшеница
-день площадь за день 136 площадь с начала операции 272га12
+день-площадь за день 136 площадь с начала операции 272га12%
 срадство защиты растений по озимая ячмень
-день площадь за день 71 площадь с начала операции 71га22
+день-площадь за день 71 площадь с начала операции 71га22%
 довсходовое боронование подсолнечника
-день площадь за день 184 площадь с начала операции 289га55</t>
+день-площадь за день 184 площадь с начала операции 289га55%</t>
         </is>
       </c>
     </row>
@@ -2737,8 +2737,8 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>подкормка кас 32 по оз пшенице пу юг площадь за день 99 площадь с начала операции 162
-отделение 16 площадь за день 99 площадь с начала операции 162</t>
+          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 99 площадь с начала операции 162
+отделение 16-площадь за день 99 площадь с начала операции 162</t>
         </is>
       </c>
     </row>
@@ -2757,10 +2757,10 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>30 03 25г мир
-предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97 609 14
-посев подсолнечника площадь за день 17 площадь с начала операции 47 659 6
-вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118 166 97
+          <t>30.03.25г мир.
+предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97/609 - 14%
+посев подсолнечника площадь за день 17 площадь с начала операции 47/659 - 6%
+вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118/166 - 97%
 на данный момент осадки в 2х районах до 3мм</t>
         </is>
       </c>
@@ -2783,9 +2783,9 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>ао кропоткинское
-30 03 2024
+30.03.2024
 2 подкормка озимой пшеницы площадь за день 504 площадь с начала операции 7758
-посев сах свеклы площадь за день 241 площадь с начала операции 1806 87 7ед
+посев сах.свеклы площадь за день 241 площадь с начала операции 1806 87% (7ед)
 осталось 335га
 выравнивание зяби под кукурузу площадь за день 70 площадь с начала операции 2874
 предпосевная культивация под подсолнечник площадь за день 70 площадь с начала операции 70</t>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>27 07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг площадь за день 454 площадь с начала операции 1715
-отделение 11 площадь за день 102 площадь с начала операции 209
-отделение 12 площадь за день 175 площадь с начала операции 593
-отделение 17 площадь за день 177 площадь с начала операции 260</t>
+          <t>27.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 454 площадь с начала операции 1715
+отделение 11-площадь за день 102 площадь с начала операции 209
+отделение 12-площадь за день 175 площадь с начала операции 593
+отделение 17-площадь за день 177 площадь с начала операции 260</t>
         </is>
       </c>
     </row>
@@ -2860,8 +2860,8 @@
 дискование кукурузный силос
 по пу площадь за день 207 площадь с начала операции 857
 отделение 11 площадь за день 66 площадь с начала операции 199
-отделение 12 площадь за день 141 площадь с начала операции 289
-дискование озимая пшеницы
+отделение 12 площадь за день 141 площадь с начала операции 289 
+дискование озимая пшеницы 
 по пу площадь за день 57 площадь с начала операции 8743
 отделение 17 площадь за день 57 площадь с начала операции 1999
 выкашивание отцовские травы формирование подготовка грунта
@@ -2905,29 +2905,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>пу юг 2 03
+          <t>пу «юг» 2.03
 выравнивание зяби под сахарная свекла
 по пу площадь за день 105 площадь с начала операции 2527
 отделение 11 площадь за день 30 площадь с начала операции 674
 отделение 17 площадь за день 75 площадь с начала операции 588
-выравнивание зяби под кукурузное зерно
+выравнивание зяби под кукурузное зерно 
 по пу площадь за день 40 площадь с начала операции 571
 отделение 12 площадь за день 40 площадь с начала операции 412
 выравнивание зяби по кукурузный силос
 по пу площадь за день 62 площадь с начала операции 232
 отделение 11 площадь за день 23 площадь с начала операции 23
 отделение 17 площадь за день 39 площадь с начала операции 39
-выравнивание зяби под сою
+выравнивание зяби под сою 
 по пу площадь за день 72 площадь с начала операции 354
 отделение 16 площадь за день 72 площадь с начала операции 289
-посев овса
+посев овса 
 по пу площадь за день 5 площадь с начала операции 5
 отделение 11 площадь за день 5 площадь с начала операции 5
-прокатывание посевов овса
+прокатывание посевов овса 
 по пу площадь за день 5 площадь с начала операции 5
 отделение площадь за день 5 площадь с начала операции 5
-1 я затравка мыш грызунов по озимым кол пу юг площадь за день 100 площадь с начала операции 8804 12 человек
-отделение 16 площадь за день 100 площадь с начала операции 2194</t>
+1-я затравка мыш грызунов по озимым кол. пу"юг" -площадь за день 100 площадь с начала операции 8804, ,12 человек
+отделение 16-площадь за день 100 площадь с начала операции 2194</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2951,14 @@
       <c r="C74" t="inlineStr">
         <is>
           <t>восход
-посев кук площадь за день 121 площадь с начала операции 228га
-22
-вторая подкормка озимая пш 2200га 100
-срадство защиты растений озимая пш площадь за день 182 площадь с начала операции 454га 21
-срадство защиты растений озимая яч площадь за день 97 площадь с начала операции 168га
-53
+посев кук-площадь за день 121 площадь с начала операции 228га
+ 22%
+вторая подкормка озимая пш-2200га, 100%
+срадство защиты растений озимая пш-площадь за день 182 площадь с начала операции 454га, 21%
+срадство защиты растений озимая яч-площадь за день 97 площадь с начала операции 168га
+53%
 довсходовое боронование подсолнечника
-площадь за день 175 площадь с начала операции 464га 89</t>
+площадь за день 175 площадь с начала операции 464га, 89%</t>
         </is>
       </c>
     </row>
@@ -3015,10 +3015,10 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22 03 внесение гербицидов по оз рапсу пу юг площадь за день 320 площадь с начала операции 474
-отделение 11 площадь за день 95 площадь с начала операции 174
-отделение 12 площадь за день 150 площадь с начала операции 150
-отделение 16 площадь за день 75 площадь с начала операции 150</t>
+          <t>22.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 320 площадь с начала операции 474
+отделение 11-площадь за день 95 площадь с начала операции 174
+отделение 12-площадь за день 150 площадь с начала операции 150
+отделение 16-площадь за день 75 площадь с начала операции 150</t>
         </is>
       </c>
     </row>
@@ -3035,9 +3035,9 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>подкормка кас 32 по оз пшенице пу юг площадь за день 400 площадь с начала операции 562
-отделение 12 площадь за день 241 площадь с начала операции 241
-отделение 16 площадь за день 159 площадь с начала операции 321</t>
+          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 400 площадь с начала операции 562
+отделение 12-площадь за день 241 площадь с начала операции 241
+отделение 16-площадь за день 159 площадь с начала операции 321</t>
         </is>
       </c>
     </row>
@@ -3088,8 +3088,8 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23 03 внесение гербицидов по оз рапсу пу юг площадь за день 71 площадь с начала операции 545
-отделение 11 площадь за день 71 площадь с начала операции 245</t>
+          <t>23.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 71 площадь с начала операции 545
+отделение 11-площадь за день 71 площадь с начала операции 245</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
 попу площадь за день 18 площадь с начала операции 1515
 отделение 11 площадь за день 18 площадь с начала операции 746
 предпосевная культура под сахарная свекла
-попу 175 2881
+попу 175//2881
 отделение 11 площадь за день 45 площадь с начала операции 734
 отделение 17 площадь за день 130 площадь с начала операции 881
 посев сахарная свекла
@@ -3149,11 +3149,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>24 03 внесение гербицидов по оз рапсу пу юг площадь за день 445 площадь с начала операции 990
-отделение 11 площадь за день 138 площадь с начала операции 383
-отделение 12 площадь за день 110 площадь с начала операции 260
-отделение 16 площадь за день 97 площадь с начала операции 247
-отделение 17 площадь за день 100 площадь с начала операции 100</t>
+          <t>24.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 445 площадь с начала операции 990
+отделение 11-площадь за день 138 площадь с начала операции 383
+отделение 12-площадь за день 110 площадь с начала операции 260
+отделение 16-площадь за день 97 площадь с начала операции 247
+отделение 17-площадь за день 100 площадь с начала операции 100</t>
         </is>
       </c>
     </row>
@@ -3180,19 +3180,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>уборка свеклы 27 10 день
-отд10 площадь за день 45 площадь с начала операции 216
+          <t>уборка свеклы 27.10.день
+отд10-площадь за день 45 площадь с начала операции 216
 по пу площадь за день 45 площадь с начала операции 1569
 валовый площадь за день 1259680 площадь с начала операции 6660630
-урожайность 279 площадь за день 9 площадь с начала операции 308 3
+урожайность 279,площадь за день 9 площадь с начала операции 308,3
 по пу площадь за день 1259680 площадь с начала операции 41630600
 на завод площадь за день 1811630 площадь с начала операции 6430580
 по пу площадь за день 1811630 площадь с начала операции 41400550
 положено в кагат 399400
 вввезено с кагата 951340
 остаток 230060
-оз 9 площадь за день 04 площадь с начала операции 12 58
-дигестия 14 площадь за день 50 площадь с начала операции 15 05</t>
+оз-9,площадь за день 04 площадь с начала операции 12,58
+дигестия-14,площадь за день 50 площадь с начала операции 15,05</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
 отделение 12 площадь за день 46 площадь с начала операции 298
 отделение 16 площадь за день 21 площадь с начала операции 143
 отделение 17 площадь за день 10 площадь с начала операции 17
-чизлование под озимая ячмень
+чизлование под озимая ячмень 
 по пу площадь за день 22 площадь с начала операции 640
 отделение 11 площадь за день 22 площадь с начала операции 242
 чизлование под озимая зел корм
@@ -3258,7 +3258,7 @@
 прик под озимая ячмень
 по пу площадь за день 40 площадь с начала операции 498
 отделение 11 площадь за день 40 площадь с начала операции 100
-уборка сои семенной
+уборка сои (семенной)
 отделение 11 площадь за день 65 площадь с начала операции 65
 валовый 58720
 урожайность 9</t>
@@ -3330,9 +3330,9 @@
 уборка сахарная свекла
 отделение 12 площадь за день 16 площадь с начала операции 16
 валовый 473920
-урожайность 296 2
-диг 19 19
-озимая 5 33</t>
+урожайность 296,2
+диг - 19,19
+озимая - 5,33</t>
         </is>
       </c>
     </row>
@@ -3358,16 +3358,16 @@
       <c r="C85" t="inlineStr">
         <is>
           <t>восход
-посев кук площадь за день 24 площадь с начала операции 252га
-24
+посев кук-площадь за день 24 площадь с начала операции 252га
+24%
 предпосевная культура
-под кук площадь за день 94 площадь с начала операции 490га46
-сзроз пш площадь за день 103 площадь с начала операции 557га
-25
-подкормка озимая рапс
-152га 100 подкормка овса 97га 50
-довсходовое боронование подсолнечника 524
-га 100</t>
+под кук-площадь за день 94 площадь с начала операции 490га46%
+сзроз пш-площадь за день 103 площадь с начала операции 557га
+25%
+подкормка озимая рапс-
+152га , 100%, подкормка овса-97га, 50%
+довсходовое боронование подсолнечника-524
+га, 100%.</t>
         </is>
       </c>
     </row>
@@ -3386,8 +3386,8 @@
       <c r="C86" t="inlineStr">
         <is>
           <t>тск
-выравнивание зяби под сою 25 га с нарастающим 765 га 13 остаток 5332 га
-выравнивание зяби под кукурузу 131га 3 остаток 4486 га
+выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) остаток 5332 га
+выравнивание зяби под кукурузу 131га (3%) остаток 4486 га
 осадки 1мм</t>
         </is>
       </c>
@@ -3408,12 +3408,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>20 11 мир
-пахота зяби под сою 100 га день 1109 га от начала 97 30 га остаток
-работало 4 агрегата
-выравнивание зяби под подсолнечник 47 га день 141 га от начала 29 остаток 565 га работал 1 агрегат
-осадки
-бригада 1 воронежская 6 мм</t>
+          <t>20.11 мир
+пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
+работало 4 агрегата.
+выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. работал 1 агрегат
+осадки:
+бригада 1 воронежская - 6 мм</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="C88" t="inlineStr">
         <is>
           <t>ао кропоткинское
-26 03 25
-2 подкормка озимой пшеницы площадь за день 862 площадь с начала операции 5519
-предпосевная культивация под сах свеклу площадь за день 274 площадь с начала операции 896
-посев сах свеклы площадь за день 276 площадь с начала операции 666 31 7ед
+26.03.25
+2 подкормка озимой пшеницы - площадь за день 862 площадь с начала операции 5519
+предпосевная культивация под сах.свеклу - площадь за день 274 площадь с начала операции 896
+посев сах.свеклы - площадь за день 276 площадь с начала операции 666 (31%) 7ед.
 осталось 1475га
-выравнивание зяби под кукурузу площадь за день 295 площадь с начала операции 2348</t>
+выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2348</t>
         </is>
       </c>
     </row>
@@ -3465,13 +3465,13 @@
         <is>
           <t>восход
 посев подсолнечника
-день 149га
-всего 351га 67
+день-149га
+всего-351га,67%
 химпрополка рапса
-152га 100
+152га, 100%
 первая культивация
-зябис день 180га
-всего 1430га 76 2</t>
+зябис день-180га
+всего-1430га, 76,2%.</t>
         </is>
       </c>
     </row>
@@ -3494,11 +3494,11 @@
         <is>
           <t>восход
 посев подсолнечника
-день 145га всего 496га 95
+день-145га, всего-496га,95%
 вторая подкормка озимая
-пш 218га 10
-1 я культивация зяби день 196га
-всего 1626га 86</t>
+пш-218га, 10%.
+1-я культивация зяби день-196га,
+всего-1626га, 86%.</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>27 03 25 мир
-выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153 20 98
-сплошная культивация под сою площадь за день 50 площадь с начала операции 140 447 24
-предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702 246 74
-посев сахарной свеклы площадь за день 135 площадь с начала операции 655 293 69
-вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205 3079 42
+          <t>27.03.25 мир.
+выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153/20 - 98%
+сплошная культивация под сою площадь за день 50 площадь с начала операции 140/447 - 24%
+предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702/246 - 74%
+посев сахарной свеклы площадь за день 135 площадь с начала операции 655/293 - 69%
+вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205/3079 - 42%
 на севе работало 5 ед</t>
         </is>
       </c>
@@ -3557,24 +3557,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>27 03 25г
+          <t>27.03.25г.
 сп коломейцево
-предпосевная культивация
-под сахарную свеклу
-день 19га
-от начала 314га 100
-под подсолнечник
-день 20га
-от начала 20га 10
-посев сахарной свеклы
+предпосевная культивация  
+ -под сахарную свеклу: 
+   день 19га
+  от начала 314га(100%)
+  -под подсолнечник
+    день 20га
+    от начала 20га(10%)
+посев сахарной свеклы: 
 день 30га
-от начала 265га 84
-внесение минеральных удобрений по озимой пшенице 2 след
+от начала 265га(84%)
+ внесение минеральных удобрений по озимой пшенице,2 след: 
 день 139га
-от начала 1015га 100
-сплошная культивация под сою
-день 51га
-от начала 145га 71</t>
+от начала 1015га(100%)
+сплошная культивация под сою:
+  день 51га 
+  от начала 145га (71%)</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       <c r="C93" t="inlineStr">
         <is>
           <t>ао кропоткинское
-27 03 25
-2 подкормка озимой пшеницы площадь за день 834 площадь с начала операции 6353
-предпосевная культивация под сах свеклу площадь за день 306 площадь с начала операции 1202
-посев сах свеклы площадь за день 278 площадь с начала операции 944 44 7ед
+27.03.25
+2 подкормка озимой пшеницы - площадь за день 834 площадь с начала операции 6353
+предпосевная культивация под сах.свеклу - площадь за день 306 площадь с начала операции 1202
+посев сах.свеклы - площадь за день 278 площадь с начала операции 944 (44%) 7ед.
 осталось 1197га
-выравнивание зяби под кукурузу площадь за день 295 площадь с начала операции 2643</t>
+выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2643</t>
         </is>
       </c>
     </row>
@@ -3620,9 +3620,9 @@
       <c r="C94" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218 73
-культура сахарная свёкла площадь за день 1225 площадь с начала операции 9228 82
-2 подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547 95</t>
+посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218/73%
+культура. сахарная свёкла площадь за день 1225 площадь с начала операции 9228/82%
+2-подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547/95%</t>
         </is>
       </c>
     </row>
@@ -3642,8 +3642,8 @@
         <is>
           <t>восход
 посев подсолнечника
-день 28
-всего 524га 100</t>
+день-28
+всего-524га, 100%</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>колхоз прогресс химпрополка оз пшеницы за день 185 га всего 185 га 13 остаток 1212 га</t>
+          <t>колхоз прогресс: химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
         </is>
       </c>
     </row>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>28 03 25 мир
-предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880 68
-посев сахарной свеклы площадь за день 150 площадь с начала операции 805 143
-вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200 2084
-на севе работало 5 ед</t>
+          <t>28.03.25 мир.
+предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880/68
+посев сахарной свеклы площадь за день 150 площадь с начала операции 805/143
+вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200/2084
+на севе работало 5 ед.</t>
         </is>
       </c>
     </row>
@@ -3710,21 +3710,21 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>28 03 25г
+          <t>28.03.25г.
 сп коломейцево
-предпосевная культивация
-под подсолнечник
-день 40га
-от начала 60га 29
-посев сахарной свеклы
+предпосевная культивация  
+  -под подсолнечник
+    день 40га
+    от начала 60га(29%)
+посев сахарной свеклы: 
 день 30га
-от начала 295га 94
-посев подсолнечника
-день 25га
-от начала 25га 12
-сплошная культивация под сою
-день 55га
-от начала 200га 80</t>
+от начала 295га(94%)
+посев подсолнечника 
+  день 25га
+  от начала 25га(12%)
+сплошная культивация под сою:
+  день 55га 
+  от начала 200га (80%)</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       <c r="C99" t="inlineStr">
         <is>
           <t>ао кропоткинское
-28 03 25
-2 подкормка озимой пшеницы площадь за день 622 площадь с начала операции 6975
-предпосевная культивация под сах свеклу площадь за день 426 площадь с начала операции 1628
-посев сах свеклы площадь за день 285 площадь с начала операции 1229 57 7ед
+28.03.25
+2 подкормка озимой пшеницы - площадь за день 622 площадь с начала операции 6975
+предпосевная культивация под сах.свеклу - площадь за день 426 площадь с начала операции 1628
+посев сах.свеклы - площадь за день 285 площадь с начала операции 1229 (57%) 7ед.
 осталось 912га
-выравнивание зяби под кукурузу площадь за день 161 площадь с начала операции 2804</t>
+выравнивание зяби под кукурузу - площадь за день 161 площадь с начала операции 2804</t>
         </is>
       </c>
     </row>
@@ -3772,11 +3772,11 @@
       <c r="C100" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359 83
-культура сахарная свёкла площадь за день 1014 площадь с начала операции 10241 91
-2 подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924 99
-герб обработка озимая пшеницы площадь за день 643 площадь с начала операции 643 2
-герб почвен сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
+посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359/83%
+культура. сахарная свёкла площадь за день 1014 площадь с начала операции 10241/91%
+2-подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924/99%
+герб. обработка озимая пшеницы площадь за день 643 площадь с начала операции 643/2%
+герб. почвен. сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
         </is>
       </c>
     </row>
@@ -3803,15 +3803,15 @@
         <is>
           <t>восход
 предпосевная культивация под
-кук 219га 21
-посев кук 21га 2
-вторая подкормка озимая пшеница день 474га всего 692 31 5
-1 я срадство защиты растений по озимая пшеница
-136га 6
-предпосевное внесение под
-посев кукурузный ам селитра 114га
-86 до всходовое
-боронование подсолн 105га 20</t>
+кук-219га, 21%
+посев кук-21га, 2%
+вторая подкормка озимая пшеница день-474га, всего-692,31,5%
+1-я срадство защиты растений по озимая пшеница
+136га, 6%
+предпосевное внесение  под
+посев кукурузный ам селитра-114га
+,86%. до всходовое
+боронование подсолн-105га, 20%</t>
         </is>
       </c>
     </row>
@@ -3832,10 +3832,10 @@
       <c r="C102" t="inlineStr">
         <is>
           <t>ао кропоткинское
-29 03 25
-2 подкормка озимой пшеницы площадь за день 279 площадь с начала операции 7254
-предпосевная культивация под сах свеклу площадь за день 241 площадь с начала операции 1869
-посев сах свеклы площадь за день 336 площадь с начала операции 1565 73 7ед
+29.03.25
+2 подкормка озимой пшеницы - площадь за день 279 площадь с начала операции 7254
+предпосевная культивация под сах.свеклу - площадь за день 241 площадь с начала операции 1869
+посев сах.свеклы - площадь за день 336 площадь с начала операции 1565 (73%) 7ед.
 осталось 576га</t>
         </is>
       </c>
@@ -3883,39 +3883,39 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>полевые работы аор 13 11 2024
-пахота под кукурузу на зерно
-день 86 га
-от начала 3905 га 95
-остаток 192 га
-пахота под сою
-день 260 га
-от начала 6509 га 75
-остаток 2169 га
-пахота под кукурузу на силос
-день 156 га
-от начала 1657 га 54
-остаток 1429 га
-чизелевание под сою
-день 54 га
-от начала 768 га
-остаток от плана 38 га
-выравнивание зяби под сахарную свеклу
-день 312 га
-от начала 7498 га 67
-остаток 3752 га
-2 след выравнивания зяби под сах свеклу
-день 101 га
-от начала 425 га 4
-остаток 10825 га
-затравка мышевидных грызунов по мн травам
-день 88 га
-от начала 965 га 55
-остаток 524 га
-посев озимой пшеницы товарной
-день 85 га
-от начала 28416 га 100
-посев озимых зерновых по аор завершен</t>
+          <t>полевые работы аор, 13.11.2024.
+пахота под кукурузу на зерно:
+день - 86 га 
+от начала- 3905 га (95%)
+остаток - 192 га
+пахота под сою:
+день - 260 га 
+от начала - 6509 га (75%)
+остаток- 2169 га 
+пахота под кукурузу на силос:
+день - 156 га 
+от начала - 1657 га(54%)
+остаток - 1429 га 
+чизелевание под сою:
+день -54 га 
+от начала - 768 га
+остаток от плана - 38 га 
+выравнивание зяби под сахарную свеклу:
+день - 312 га 
+от начала-7498 га (67%)
+остаток - 3752 га
+2 след выравнивания зяби под сах.свеклу:
+день- 101 га 
+от начала- 425 га (4%)
+остаток - 10825 га 
+затравка мышевидных грызунов по мн.травам:
+день - 88 га 
+от начала -965 га (55%)
+остаток - 524 га
+посев озимой пшеницы (товарной):
+день - 85 га 
+от начала - 28416 га (100%)
+посев озимых зерновых по аор завершен.</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3935,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14 11 мир
-пахота зяби под кукурузу 57 га день 562 га от начала 83 110 га остаток
-пахота зяби под сою 60 га день 799 га от начала 70 340 га остаток
-работало 5 агрегатов
-выравнивание зяби под сахарную свёклу 130 га день 874 га от начала 92 78 га остаток
-работал 1 агрегат</t>
+          <t>14.11 мир
+пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
+пахота зяби под сою 60 га день, 799 га от начала, 70%, 340 га остаток.
+работало 5 агрегатов.
+выравнивание зяби под сахарную свёклу 130 га день, 874 га от начала, 92 %, 78 га остаток.
+работал 1 агрегат.</t>
         </is>
       </c>
     </row>
@@ -3965,14 +3965,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>14 11 24
-сп коломейцево
+          <t>14.11.24.
+сп коломейцево 
 пахота под сахарная свекла
 день 29га
-от начала 315га 100
-выравнивание под сахарную свёклу
+от начала 315га(100%)
+выравнивание под сахарную свёклу 
 день 20га
-от начала 125га 39
+от начала 125га(39%)
 выравнивание под подсолнечник
 день 14га
 от начала 14га</t>
@@ -3994,8 +3994,8 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>тск
-вспашка под кукурузу 70 га с нарастающим 1377 га 100
-выравнивание зяби под сою 155 га с нарастающим 334 га 5 остаток 5763 га
+вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
+выравнивание зяби под сою 155 га/ с нарастающим 334 га (5%) остаток 5763 га
 осадки 2 мм</t>
         </is>
       </c>
@@ -4046,42 +4046,42 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>полевые работы аор 14 11 2024
-пахота под кукурузу на зерно
-день 26 га
-от начала 3931 га 96
-остаток 166 га
-пахота под сою
-день 295 га
-от начала 6804 га 79
-остаток 1774 га
-пахота под кукурузу на силос
-день 128 га
-от начала 1881 га 61
-остаток 1205 га
-чизелевание под сою
-день 73 га
-от начала 841 га
-выравнивание зяби под сахарную свеклу
-день 384 га
-от начала 7882 га 70
-остаток 3368 га
-выравнивание зяби под подсолнечник
-день 50 га
-от начала 1260 га 30
-остаток 2923 га
-2 след выравнивания зяби под сах свеклу
-день 44 га
-от начала 469 га 4
-остаток 10781 га
-затравка мышевидных грызунов по мн травам
-день 53 га
-от начала 1018 га 58
-остаток 471 га
-затравка мышевидных грызунов по озимому ячменю
-день 186 га
-от начала 186 га
-остаток 2086 га</t>
+          <t>полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно:
+день - 26 га 
+от начала - 3931 га (96%)
+остаток - 166 га 
+пахота под сою:
+день - 295 га 
+от начала - 6804 га (79%)
+остаток- 1774 га 
+пахота под кукурузу на силос:
+день - 128 га 
+от начала - 1881 га(61%)
+остаток - 1205 га 
+чизелевание под сою:
+день -73 га 
+от начала - 841 га
+выравнивание зяби под сахарную свеклу:
+день - 384 га 
+от начала-7882 га (70%)
+остаток - 3368 га
+выравнивание зяби под подсолнечник:
+день - 50 га 
+от начала - 1260 га (30%)
+остаток - 2923 га 
+2 след выравнивания зяби под сах.свеклу:
+день- 44 га 
+от начала- 469 га (4%)
+остаток - 10781 га 
+затравка мышевидных грызунов по мн.травам:
+день - 53 га 
+от начала -1018 га (58%)
+остаток - 471 га
+затравка мышевидных грызунов по озимому ячменю:
+день - 186 га 
+от начала- 186 га 
+остаток - 2086 га</t>
         </is>
       </c>
     </row>

--- a/server/data/postprocdata.xlsx
+++ b/server/data/postprocdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
